--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_17_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_17_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>509584.2894696164</v>
+        <v>506671.5871345095</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673428</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -674,10 +674,10 @@
         <v>13.99145537648747</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>12.32367389561016</v>
       </c>
       <c r="I2" t="n">
-        <v>12.32367389561016</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>13.99145537648747</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,25 +735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>13.99145537648747</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>12.32367389561017</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>13.99145537648747</v>
       </c>
       <c r="E3" t="n">
         <v>13.99145537648747</v>
       </c>
       <c r="F3" t="n">
-        <v>13.99145537648747</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>13.99145537648747</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>12.32367389561017</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>13.99145537648747</v>
+      </c>
+      <c r="H4" t="n">
+        <v>13.99145537648747</v>
+      </c>
+      <c r="I4" t="n">
         <v>12.32367389561016</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>13.99145537648747</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.99145537648747</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>13.99145537648747</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -902,10 +902,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
+        <v>12.64992415893886</v>
+      </c>
+      <c r="F5" t="n">
         <v>14.36185758280979</v>
-      </c>
-      <c r="F5" t="n">
-        <v>12.64992415893886</v>
       </c>
       <c r="G5" t="n">
         <v>14.36185758280979</v>
@@ -972,73 +972,73 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>14.36185758280979</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
         <v>12.64992415893886</v>
       </c>
-      <c r="C6" t="n">
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
         <v>14.36185758280979</v>
       </c>
-      <c r="D6" t="n">
+      <c r="X6" t="n">
         <v>14.36185758280979</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>14.36185758280979</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1054,28 +1054,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
         <v>14.36185758280979</v>
       </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>12.64992415893886</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
       <c r="J7" t="n">
-        <v>14.36185758280979</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>157.1187419577134</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>157.1187419577134</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>157.1187419577133</v>
+        <v>136.0496667367917</v>
       </c>
       <c r="H8" t="n">
-        <v>136.0496667367915</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>131.4600546760548</v>
+        <v>131.4600546760547</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>21.12316271950945</v>
+        <v>21.12316271950942</v>
       </c>
       <c r="S8" t="n">
-        <v>157.1187419577133</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1212,25 +1212,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>157.1187419577133</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.1187419577133</v>
+        <v>157.1187419577134</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>101.6444647650348</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.3973371895092</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>32.071591919214</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>157.1187419577133</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>138.3901879163539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>154.0531901378539</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>28.36014035361794</v>
+        <v>28.36014035361792</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>9.177839155320697</v>
+        <v>9.177839155320683</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>120.0402566580603</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>157.1187419577133</v>
+        <v>114.6025395384189</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>157.1187419577134</v>
       </c>
     </row>
     <row r="11">
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>5.73218039578299</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1433,10 +1433,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>259.1298052916241</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1537,10 +1537,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>80.50796942908565</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>66.44957347303782</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1622,10 +1622,10 @@
         <v>410.4518777843217</v>
       </c>
       <c r="H14" t="n">
-        <v>149.645329632905</v>
+        <v>289.7959348975749</v>
       </c>
       <c r="I14" t="n">
-        <v>23.46311979822397</v>
+        <v>23.46311979822389</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>98.48110347033597</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>201.8612110924959</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9575841293714</v>
+        <v>120.3940048960409</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.7480783930872</v>
       </c>
       <c r="H15" t="n">
-        <v>87.16896979872581</v>
+        <v>87.1689697987258</v>
       </c>
       <c r="I15" t="n">
-        <v>10.16187848478673</v>
+        <v>10.1618784847867</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.71276924704436</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>119.4201740009953</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.8150506800263</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>79.45572552692425</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>186.0960955228356</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>218.6484396204337</v>
@@ -1844,19 +1844,19 @@
         <v>354.7179023502508</v>
       </c>
       <c r="C17" t="n">
-        <v>337.2569524577777</v>
+        <v>337.2569524577778</v>
       </c>
       <c r="D17" t="n">
-        <v>326.6671023074531</v>
+        <v>326.6671023074532</v>
       </c>
       <c r="E17" t="n">
         <v>353.914430759032</v>
       </c>
       <c r="F17" t="n">
-        <v>378.8601064284816</v>
+        <v>378.8601064284817</v>
       </c>
       <c r="G17" t="n">
-        <v>382.1072710812023</v>
+        <v>382.1072710812024</v>
       </c>
       <c r="H17" t="n">
         <v>258.4140306776386</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.97565600999769</v>
+        <v>62.97565600999775</v>
       </c>
       <c r="T17" t="n">
-        <v>172.4065302800245</v>
+        <v>172.4065302800246</v>
       </c>
       <c r="U17" t="n">
-        <v>222.9153514249518</v>
+        <v>222.9153514249505</v>
       </c>
       <c r="V17" t="n">
-        <v>299.7363191569051</v>
+        <v>299.7363191569052</v>
       </c>
       <c r="W17" t="n">
-        <v>321.2250294041832</v>
+        <v>321.2250294041833</v>
       </c>
       <c r="X17" t="n">
-        <v>341.7151613652392</v>
+        <v>341.7151613652393</v>
       </c>
       <c r="Y17" t="n">
         <v>358.2219993428238</v>
@@ -1941,7 +1941,7 @@
         <v>85.47060431623963</v>
       </c>
       <c r="I18" t="n">
-        <v>4.107305806532182</v>
+        <v>4.107305806532196</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>151.8160408687075</v>
       </c>
       <c r="C19" t="n">
-        <v>73.46710858539052</v>
+        <v>73.46710858538837</v>
       </c>
       <c r="D19" t="n">
         <v>120.5995337049826</v>
@@ -2014,13 +2014,13 @@
         <v>117.4051087097015</v>
       </c>
       <c r="G19" t="n">
-        <v>137.651682490471</v>
+        <v>137.6516824904711</v>
       </c>
       <c r="H19" t="n">
         <v>113.5544723891802</v>
       </c>
       <c r="I19" t="n">
-        <v>57.56483751276274</v>
+        <v>57.56483751276279</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>44.81084782909683</v>
+        <v>44.81084782909689</v>
       </c>
       <c r="S19" t="n">
-        <v>155.5108729740065</v>
+        <v>155.5108729740066</v>
       </c>
       <c r="T19" t="n">
-        <v>190.0025769265405</v>
+        <v>190.0025769265406</v>
       </c>
       <c r="U19" t="n">
         <v>258.1763614493652</v>
       </c>
       <c r="V19" t="n">
-        <v>224.1217040105982</v>
+        <v>224.1217040105983</v>
       </c>
       <c r="W19" t="n">
-        <v>258.5070590233612</v>
+        <v>258.5070590233613</v>
       </c>
       <c r="X19" t="n">
-        <v>197.6937160758073</v>
+        <v>197.6937160758074</v>
       </c>
       <c r="Y19" t="n">
         <v>190.568714038865</v>
@@ -2081,19 +2081,19 @@
         <v>354.7179023502508</v>
       </c>
       <c r="C20" t="n">
-        <v>337.2569524577777</v>
+        <v>337.2569524577778</v>
       </c>
       <c r="D20" t="n">
-        <v>326.6671023074531</v>
+        <v>326.6671023074523</v>
       </c>
       <c r="E20" t="n">
         <v>353.914430759032</v>
       </c>
       <c r="F20" t="n">
-        <v>378.8601064284816</v>
+        <v>378.8601064284817</v>
       </c>
       <c r="G20" t="n">
-        <v>382.1072710812023</v>
+        <v>382.1072710812024</v>
       </c>
       <c r="H20" t="n">
         <v>258.4140306776386</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.97565600999769</v>
+        <v>62.97565600999775</v>
       </c>
       <c r="T20" t="n">
-        <v>172.4065302800245</v>
+        <v>172.4065302800246</v>
       </c>
       <c r="U20" t="n">
-        <v>222.9153514249504</v>
+        <v>222.9153514249505</v>
       </c>
       <c r="V20" t="n">
-        <v>299.7363191569051</v>
+        <v>299.7363191569052</v>
       </c>
       <c r="W20" t="n">
         <v>321.2250294041833</v>
       </c>
       <c r="X20" t="n">
-        <v>341.7151613652392</v>
+        <v>341.7151613652393</v>
       </c>
       <c r="Y20" t="n">
         <v>358.2219993428238</v>
@@ -2178,7 +2178,7 @@
         <v>85.47060431623963</v>
       </c>
       <c r="I21" t="n">
-        <v>4.107305806532182</v>
+        <v>4.107305806532196</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,25 +2239,25 @@
         <v>151.8160408687075</v>
       </c>
       <c r="C22" t="n">
-        <v>139.230881785398</v>
+        <v>139.2308817853981</v>
       </c>
       <c r="D22" t="n">
         <v>120.5995337049826</v>
       </c>
       <c r="E22" t="n">
-        <v>118.4180233333394</v>
+        <v>52.65425013332943</v>
       </c>
       <c r="F22" t="n">
         <v>117.4051087097015</v>
       </c>
       <c r="G22" t="n">
-        <v>137.651682490471</v>
+        <v>137.6516824904711</v>
       </c>
       <c r="H22" t="n">
-        <v>47.79069918917214</v>
+        <v>113.5544723891802</v>
       </c>
       <c r="I22" t="n">
-        <v>57.56483751276274</v>
+        <v>57.56483751276279</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>44.81084782909683</v>
+        <v>44.81084782909689</v>
       </c>
       <c r="S22" t="n">
-        <v>155.5108729740065</v>
+        <v>155.5108729740066</v>
       </c>
       <c r="T22" t="n">
-        <v>190.0025769265405</v>
+        <v>190.0025769265406</v>
       </c>
       <c r="U22" t="n">
         <v>258.1763614493652</v>
       </c>
       <c r="V22" t="n">
-        <v>224.1217040105982</v>
+        <v>224.1217040105983</v>
       </c>
       <c r="W22" t="n">
-        <v>258.5070590233612</v>
+        <v>258.5070590233613</v>
       </c>
       <c r="X22" t="n">
-        <v>197.6937160758073</v>
+        <v>197.6937160758074</v>
       </c>
       <c r="Y22" t="n">
         <v>190.568714038865</v>
@@ -2318,19 +2318,19 @@
         <v>354.7179023502508</v>
       </c>
       <c r="C23" t="n">
-        <v>337.2569524577777</v>
+        <v>337.2569524577778</v>
       </c>
       <c r="D23" t="n">
-        <v>326.6671023074531</v>
+        <v>326.6671023074532</v>
       </c>
       <c r="E23" t="n">
         <v>353.914430759032</v>
       </c>
       <c r="F23" t="n">
-        <v>378.8601064284816</v>
+        <v>378.8601064284817</v>
       </c>
       <c r="G23" t="n">
-        <v>382.1072710812023</v>
+        <v>382.1072710812024</v>
       </c>
       <c r="H23" t="n">
         <v>258.4140306776386</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.97565600999771</v>
+        <v>62.97565600999775</v>
       </c>
       <c r="T23" t="n">
-        <v>172.4065302800245</v>
+        <v>172.4065302800246</v>
       </c>
       <c r="U23" t="n">
-        <v>222.9153514249504</v>
+        <v>222.9153514249505</v>
       </c>
       <c r="V23" t="n">
-        <v>299.7363191569051</v>
+        <v>299.7363191569052</v>
       </c>
       <c r="W23" t="n">
-        <v>321.2250294041832</v>
+        <v>321.2250294041833</v>
       </c>
       <c r="X23" t="n">
-        <v>341.7151613652392</v>
+        <v>341.7151613652393</v>
       </c>
       <c r="Y23" t="n">
         <v>358.2219993428238</v>
@@ -2476,7 +2476,7 @@
         <v>151.8160408687075</v>
       </c>
       <c r="C25" t="n">
-        <v>139.230881785398</v>
+        <v>139.2308817853981</v>
       </c>
       <c r="D25" t="n">
         <v>120.5995337049826</v>
@@ -2488,13 +2488,13 @@
         <v>117.4051087097015</v>
       </c>
       <c r="G25" t="n">
-        <v>137.651682490471</v>
+        <v>137.6516824904711</v>
       </c>
       <c r="H25" t="n">
         <v>113.5544723891802</v>
       </c>
       <c r="I25" t="n">
-        <v>57.56483751276275</v>
+        <v>57.56483751276279</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>44.81084782909684</v>
+        <v>44.81084782909689</v>
       </c>
       <c r="S25" t="n">
         <v>155.5108729740066</v>
       </c>
       <c r="T25" t="n">
-        <v>190.0025769265405</v>
+        <v>190.0025769265406</v>
       </c>
       <c r="U25" t="n">
         <v>258.1763614493652</v>
       </c>
       <c r="V25" t="n">
-        <v>224.1217040105982</v>
+        <v>158.3579308105889</v>
       </c>
       <c r="W25" t="n">
-        <v>192.7432858233525</v>
+        <v>258.5070590233613</v>
       </c>
       <c r="X25" t="n">
-        <v>197.6937160758073</v>
+        <v>197.6937160758074</v>
       </c>
       <c r="Y25" t="n">
         <v>190.568714038865</v>
@@ -2722,7 +2722,7 @@
         <v>118.4180233333394</v>
       </c>
       <c r="F28" t="n">
-        <v>51.64133550969286</v>
+        <v>117.4051087097015</v>
       </c>
       <c r="G28" t="n">
         <v>137.6516824904711</v>
@@ -2776,7 +2776,7 @@
         <v>258.5070590233613</v>
       </c>
       <c r="X28" t="n">
-        <v>197.6937160758074</v>
+        <v>131.9299428757984</v>
       </c>
       <c r="Y28" t="n">
         <v>190.568714038865</v>
@@ -2959,7 +2959,7 @@
         <v>118.4180233333394</v>
       </c>
       <c r="F31" t="n">
-        <v>117.4051087097015</v>
+        <v>51.64133550969173</v>
       </c>
       <c r="G31" t="n">
         <v>137.6516824904711</v>
@@ -3001,7 +3001,7 @@
         <v>155.5108729740066</v>
       </c>
       <c r="T31" t="n">
-        <v>124.2388037265311</v>
+        <v>190.0025769265406</v>
       </c>
       <c r="U31" t="n">
         <v>258.1763614493652</v>
@@ -3193,7 +3193,7 @@
         <v>120.5995337049826</v>
       </c>
       <c r="E34" t="n">
-        <v>118.4180233333394</v>
+        <v>52.65425013333054</v>
       </c>
       <c r="F34" t="n">
         <v>117.4051087097015</v>
@@ -3238,7 +3238,7 @@
         <v>155.5108729740066</v>
       </c>
       <c r="T34" t="n">
-        <v>124.238803726531</v>
+        <v>190.0025769265406</v>
       </c>
       <c r="U34" t="n">
         <v>258.1763614493652</v>
@@ -3430,7 +3430,7 @@
         <v>120.5995337049826</v>
       </c>
       <c r="E37" t="n">
-        <v>118.4180233333394</v>
+        <v>52.65425013332954</v>
       </c>
       <c r="F37" t="n">
         <v>117.4051087097015</v>
@@ -3475,7 +3475,7 @@
         <v>155.5108729740066</v>
       </c>
       <c r="T37" t="n">
-        <v>124.238803726531</v>
+        <v>190.0025769265406</v>
       </c>
       <c r="U37" t="n">
         <v>258.1763614493652</v>
@@ -3670,7 +3670,7 @@
         <v>118.4180233333394</v>
       </c>
       <c r="F40" t="n">
-        <v>51.64133550969151</v>
+        <v>51.64133550969196</v>
       </c>
       <c r="G40" t="n">
         <v>137.6516824904711</v>
@@ -3904,10 +3904,10 @@
         <v>120.5995337049826</v>
       </c>
       <c r="E43" t="n">
-        <v>110.219087646093</v>
+        <v>118.4180233333394</v>
       </c>
       <c r="F43" t="n">
-        <v>117.4051087097015</v>
+        <v>51.64133550969196</v>
       </c>
       <c r="G43" t="n">
         <v>137.6516824904711</v>
@@ -3916,7 +3916,7 @@
         <v>113.5544723891802</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>57.56483751276279</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>354.7179023502508</v>
+        <v>354.7179023502507</v>
       </c>
       <c r="C44" t="n">
-        <v>337.2569524577778</v>
+        <v>337.2569524577777</v>
       </c>
       <c r="D44" t="n">
-        <v>326.6671023074532</v>
+        <v>326.6671023074531</v>
       </c>
       <c r="E44" t="n">
-        <v>353.914430759032</v>
+        <v>353.9144307590319</v>
       </c>
       <c r="F44" t="n">
-        <v>378.8601064284817</v>
+        <v>378.8601064284816</v>
       </c>
       <c r="G44" t="n">
-        <v>382.1072710812024</v>
+        <v>382.1072710812023</v>
       </c>
       <c r="H44" t="n">
-        <v>258.4140306776386</v>
+        <v>258.4140306776385</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.97565600999775</v>
+        <v>62.97565600999762</v>
       </c>
       <c r="T44" t="n">
-        <v>172.4065302800246</v>
+        <v>172.4065302800244</v>
       </c>
       <c r="U44" t="n">
-        <v>222.9153514249505</v>
+        <v>222.9153514249504</v>
       </c>
       <c r="V44" t="n">
-        <v>299.7363191569052</v>
+        <v>299.736319156905</v>
       </c>
       <c r="W44" t="n">
-        <v>321.2250294041833</v>
+        <v>321.2250294041831</v>
       </c>
       <c r="X44" t="n">
-        <v>341.7151613652393</v>
+        <v>341.7151613652392</v>
       </c>
       <c r="Y44" t="n">
-        <v>358.2219993428238</v>
+        <v>358.2219993428237</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>151.8160408687075</v>
+        <v>151.8160408687074</v>
       </c>
       <c r="C46" t="n">
-        <v>139.2308817853981</v>
+        <v>139.2308817853979</v>
       </c>
       <c r="D46" t="n">
-        <v>120.5995337049826</v>
+        <v>120.5995337049825</v>
       </c>
       <c r="E46" t="n">
-        <v>118.4180233333394</v>
+        <v>118.4180233333393</v>
       </c>
       <c r="F46" t="n">
-        <v>109.2061730224552</v>
+        <v>117.4051087097014</v>
       </c>
       <c r="G46" t="n">
-        <v>137.6516824904711</v>
+        <v>137.6516824904709</v>
       </c>
       <c r="H46" t="n">
-        <v>113.5544723891802</v>
+        <v>113.5544723891801</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>57.56483751276267</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>44.81084782909689</v>
+        <v>44.81084782909676</v>
       </c>
       <c r="S46" t="n">
-        <v>155.5108729740066</v>
+        <v>155.5108729740065</v>
       </c>
       <c r="T46" t="n">
-        <v>190.0025769265406</v>
+        <v>190.0025769265405</v>
       </c>
       <c r="U46" t="n">
-        <v>258.1763614493652</v>
+        <v>192.412588249358</v>
       </c>
       <c r="V46" t="n">
-        <v>224.1217040105983</v>
+        <v>224.1217040105981</v>
       </c>
       <c r="W46" t="n">
-        <v>258.5070590233613</v>
+        <v>258.5070590233611</v>
       </c>
       <c r="X46" t="n">
-        <v>197.6937160758074</v>
+        <v>197.6937160758073</v>
       </c>
       <c r="Y46" t="n">
-        <v>190.568714038865</v>
+        <v>190.5687140388649</v>
       </c>
     </row>
   </sheetData>
@@ -4322,7 +4322,7 @@
         <v>13.56747188023027</v>
       </c>
       <c r="H2" t="n">
-        <v>13.56747188023027</v>
+        <v>1.119316430118998</v>
       </c>
       <c r="I2" t="n">
         <v>1.119316430118998</v>
@@ -4334,13 +4334,13 @@
         <v>14.9708572528416</v>
       </c>
       <c r="L2" t="n">
-        <v>14.9708572528416</v>
+        <v>23.74607611893826</v>
       </c>
       <c r="M2" t="n">
-        <v>14.9708572528416</v>
+        <v>37.59761694166085</v>
       </c>
       <c r="N2" t="n">
-        <v>28.2627398605047</v>
+        <v>42.1142806832273</v>
       </c>
       <c r="O2" t="n">
         <v>42.1142806832273</v>
@@ -4355,16 +4355,16 @@
         <v>55.9658215059499</v>
       </c>
       <c r="S2" t="n">
-        <v>41.83303829737669</v>
+        <v>55.9658215059499</v>
       </c>
       <c r="T2" t="n">
-        <v>41.83303829737669</v>
+        <v>55.9658215059499</v>
       </c>
       <c r="U2" t="n">
-        <v>41.83303829737669</v>
+        <v>55.9658215059499</v>
       </c>
       <c r="V2" t="n">
-        <v>41.83303829737669</v>
+        <v>55.9658215059499</v>
       </c>
       <c r="W2" t="n">
         <v>41.83303829737669</v>
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>43.51766605583862</v>
+        <v>41.83303829737669</v>
       </c>
       <c r="C3" t="n">
-        <v>43.51766605583862</v>
+        <v>29.38488284726541</v>
       </c>
       <c r="D3" t="n">
-        <v>43.51766605583862</v>
+        <v>15.2520996386922</v>
       </c>
       <c r="E3" t="n">
-        <v>29.38488284726541</v>
+        <v>1.119316430118998</v>
       </c>
       <c r="F3" t="n">
-        <v>15.2520996386922</v>
+        <v>1.119316430118998</v>
       </c>
       <c r="G3" t="n">
-        <v>15.2520996386922</v>
+        <v>1.119316430118998</v>
       </c>
       <c r="H3" t="n">
         <v>1.119316430118998</v>
@@ -4413,10 +4413,10 @@
         <v>1.119316430118998</v>
       </c>
       <c r="L3" t="n">
-        <v>14.76308113378829</v>
+        <v>14.4111990377821</v>
       </c>
       <c r="M3" t="n">
-        <v>28.61462195651089</v>
+        <v>28.2627398605047</v>
       </c>
       <c r="N3" t="n">
         <v>42.1142806832273</v>
@@ -4437,22 +4437,22 @@
         <v>55.9658215059499</v>
       </c>
       <c r="T3" t="n">
-        <v>43.51766605583862</v>
+        <v>55.9658215059499</v>
       </c>
       <c r="U3" t="n">
-        <v>43.51766605583862</v>
+        <v>55.9658215059499</v>
       </c>
       <c r="V3" t="n">
-        <v>43.51766605583862</v>
+        <v>55.9658215059499</v>
       </c>
       <c r="W3" t="n">
-        <v>43.51766605583862</v>
+        <v>55.9658215059499</v>
       </c>
       <c r="X3" t="n">
-        <v>43.51766605583862</v>
+        <v>55.9658215059499</v>
       </c>
       <c r="Y3" t="n">
-        <v>43.51766605583862</v>
+        <v>55.9658215059499</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>55.9658215059499</v>
+      </c>
+      <c r="C4" t="n">
+        <v>55.9658215059499</v>
+      </c>
+      <c r="D4" t="n">
+        <v>55.9658215059499</v>
+      </c>
+      <c r="E4" t="n">
+        <v>55.9658215059499</v>
+      </c>
+      <c r="F4" t="n">
+        <v>55.9658215059499</v>
+      </c>
+      <c r="G4" t="n">
+        <v>41.83303829737669</v>
+      </c>
+      <c r="H4" t="n">
         <v>27.70025508880348</v>
-      </c>
-      <c r="C4" t="n">
-        <v>27.70025508880348</v>
-      </c>
-      <c r="D4" t="n">
-        <v>27.70025508880348</v>
-      </c>
-      <c r="E4" t="n">
-        <v>27.70025508880348</v>
-      </c>
-      <c r="F4" t="n">
-        <v>27.70025508880348</v>
-      </c>
-      <c r="G4" t="n">
-        <v>15.2520996386922</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15.2520996386922</v>
       </c>
       <c r="I4" t="n">
         <v>15.2520996386922</v>
@@ -4492,13 +4492,13 @@
         <v>1.119316430118998</v>
       </c>
       <c r="L4" t="n">
+        <v>1.119316430118998</v>
+      </c>
+      <c r="M4" t="n">
         <v>14.9708572528416</v>
       </c>
-      <c r="M4" t="n">
-        <v>28.82239807556419</v>
-      </c>
       <c r="N4" t="n">
-        <v>42.1142806832273</v>
+        <v>28.2627398605047</v>
       </c>
       <c r="O4" t="n">
         <v>42.1142806832273</v>
@@ -4507,31 +4507,31 @@
         <v>55.9658215059499</v>
       </c>
       <c r="Q4" t="n">
-        <v>41.83303829737669</v>
+        <v>55.9658215059499</v>
       </c>
       <c r="R4" t="n">
-        <v>27.70025508880348</v>
+        <v>55.9658215059499</v>
       </c>
       <c r="S4" t="n">
-        <v>27.70025508880348</v>
+        <v>55.9658215059499</v>
       </c>
       <c r="T4" t="n">
-        <v>27.70025508880348</v>
+        <v>55.9658215059499</v>
       </c>
       <c r="U4" t="n">
-        <v>27.70025508880348</v>
+        <v>55.9658215059499</v>
       </c>
       <c r="V4" t="n">
-        <v>27.70025508880348</v>
+        <v>55.9658215059499</v>
       </c>
       <c r="W4" t="n">
-        <v>27.70025508880348</v>
+        <v>55.9658215059499</v>
       </c>
       <c r="X4" t="n">
-        <v>27.70025508880348</v>
+        <v>55.9658215059499</v>
       </c>
       <c r="Y4" t="n">
-        <v>27.70025508880348</v>
+        <v>55.9658215059499</v>
       </c>
     </row>
     <row r="5">
@@ -4550,7 +4550,7 @@
         <v>42.94050347991613</v>
       </c>
       <c r="E5" t="n">
-        <v>28.43357662859312</v>
+        <v>30.16280230927082</v>
       </c>
       <c r="F5" t="n">
         <v>15.6558754579478</v>
@@ -4565,19 +4565,19 @@
         <v>1.148948606624783</v>
       </c>
       <c r="J5" t="n">
-        <v>1.148948606624783</v>
+        <v>15.36718761360647</v>
       </c>
       <c r="K5" t="n">
-        <v>1.148948606624783</v>
+        <v>15.36718761360647</v>
       </c>
       <c r="L5" t="n">
-        <v>1.148948606624783</v>
+        <v>15.36718761360647</v>
       </c>
       <c r="M5" t="n">
         <v>15.36718761360647</v>
       </c>
       <c r="N5" t="n">
-        <v>29.58542662058816</v>
+        <v>29.01095231727577</v>
       </c>
       <c r="O5" t="n">
         <v>43.22919132425746</v>
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>44.66972916059383</v>
+        <v>15.6558754579478</v>
       </c>
       <c r="C6" t="n">
-        <v>30.16280230927082</v>
+        <v>15.6558754579478</v>
       </c>
       <c r="D6" t="n">
         <v>15.6558754579478</v>
@@ -4632,13 +4632,13 @@
         <v>15.6558754579478</v>
       </c>
       <c r="F6" t="n">
-        <v>1.148948606624783</v>
+        <v>15.6558754579478</v>
       </c>
       <c r="G6" t="n">
-        <v>1.148948606624783</v>
+        <v>15.6558754579478</v>
       </c>
       <c r="H6" t="n">
-        <v>1.148948606624783</v>
+        <v>15.6558754579478</v>
       </c>
       <c r="I6" t="n">
         <v>1.148948606624783</v>
@@ -4668,28 +4668,28 @@
         <v>57.44743033123915</v>
       </c>
       <c r="R6" t="n">
-        <v>57.44743033123915</v>
+        <v>44.66972916059383</v>
       </c>
       <c r="S6" t="n">
-        <v>57.44743033123915</v>
+        <v>44.66972916059383</v>
       </c>
       <c r="T6" t="n">
-        <v>57.44743033123915</v>
+        <v>44.66972916059383</v>
       </c>
       <c r="U6" t="n">
-        <v>57.44743033123915</v>
+        <v>44.66972916059383</v>
       </c>
       <c r="V6" t="n">
-        <v>57.44743033123915</v>
+        <v>44.66972916059383</v>
       </c>
       <c r="W6" t="n">
-        <v>57.44743033123915</v>
+        <v>30.16280230927082</v>
       </c>
       <c r="X6" t="n">
-        <v>57.44743033123915</v>
+        <v>15.6558754579478</v>
       </c>
       <c r="Y6" t="n">
-        <v>57.44743033123915</v>
+        <v>15.6558754579478</v>
       </c>
     </row>
     <row r="7">
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>42.94050347991613</v>
+        <v>28.43357662859312</v>
       </c>
       <c r="C7" t="n">
         <v>28.43357662859312</v>
@@ -4711,16 +4711,16 @@
         <v>28.43357662859312</v>
       </c>
       <c r="F7" t="n">
-        <v>28.43357662859312</v>
+        <v>13.9266497772701</v>
       </c>
       <c r="G7" t="n">
-        <v>15.6558754579478</v>
+        <v>13.9266497772701</v>
       </c>
       <c r="H7" t="n">
-        <v>15.6558754579478</v>
+        <v>13.9266497772701</v>
       </c>
       <c r="I7" t="n">
-        <v>15.6558754579478</v>
+        <v>1.148948606624783</v>
       </c>
       <c r="J7" t="n">
         <v>1.148948606624783</v>
@@ -4729,16 +4729,16 @@
         <v>1.148948606624783</v>
       </c>
       <c r="L7" t="n">
-        <v>1.148948606624783</v>
+        <v>14.79271331029408</v>
       </c>
       <c r="M7" t="n">
-        <v>14.79271331029408</v>
+        <v>29.01095231727577</v>
       </c>
       <c r="N7" t="n">
-        <v>29.01095231727577</v>
+        <v>43.22919132425746</v>
       </c>
       <c r="O7" t="n">
-        <v>43.22919132425746</v>
+        <v>57.44743033123915</v>
       </c>
       <c r="P7" t="n">
         <v>57.44743033123915</v>
@@ -4750,25 +4750,25 @@
         <v>42.94050347991613</v>
       </c>
       <c r="S7" t="n">
-        <v>42.94050347991613</v>
+        <v>28.43357662859312</v>
       </c>
       <c r="T7" t="n">
-        <v>42.94050347991613</v>
+        <v>28.43357662859312</v>
       </c>
       <c r="U7" t="n">
-        <v>42.94050347991613</v>
+        <v>28.43357662859312</v>
       </c>
       <c r="V7" t="n">
-        <v>42.94050347991613</v>
+        <v>28.43357662859312</v>
       </c>
       <c r="W7" t="n">
-        <v>42.94050347991613</v>
+        <v>28.43357662859312</v>
       </c>
       <c r="X7" t="n">
-        <v>42.94050347991613</v>
+        <v>28.43357662859312</v>
       </c>
       <c r="Y7" t="n">
-        <v>42.94050347991613</v>
+        <v>28.43357662859312</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>448.4326398740625</v>
+        <v>607.1384398313489</v>
       </c>
       <c r="C8" t="n">
-        <v>448.4326398740625</v>
+        <v>607.1384398313489</v>
       </c>
       <c r="D8" t="n">
-        <v>448.4326398740625</v>
+        <v>448.4326398740627</v>
       </c>
       <c r="E8" t="n">
-        <v>448.4326398740625</v>
+        <v>289.7268399167765</v>
       </c>
       <c r="F8" t="n">
-        <v>441.4871391248591</v>
+        <v>282.781339167573</v>
       </c>
       <c r="G8" t="n">
-        <v>282.7813391675729</v>
+        <v>145.357433372834</v>
       </c>
       <c r="H8" t="n">
         <v>145.357433372834</v>
       </c>
       <c r="I8" t="n">
-        <v>12.56949935661706</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="J8" t="n">
-        <v>12.56949935661706</v>
+        <v>61.34835368036757</v>
       </c>
       <c r="K8" t="n">
-        <v>52.78571257950531</v>
+        <v>101.5645669032559</v>
       </c>
       <c r="L8" t="n">
-        <v>139.5792431012688</v>
+        <v>188.3580974250194</v>
       </c>
       <c r="M8" t="n">
-        <v>267.8232065737885</v>
+        <v>316.6020608975392</v>
       </c>
       <c r="N8" t="n">
-        <v>402.7560998290626</v>
+        <v>451.5349541528133</v>
       </c>
       <c r="O8" t="n">
-        <v>516.834143436191</v>
+        <v>565.6129977599418</v>
       </c>
       <c r="P8" t="n">
-        <v>628.4749678308532</v>
+        <v>628.4749678308534</v>
       </c>
       <c r="Q8" t="n">
-        <v>628.4749678308532</v>
+        <v>628.4749678308534</v>
       </c>
       <c r="R8" t="n">
-        <v>607.1384398313487</v>
+        <v>607.1384398313489</v>
       </c>
       <c r="S8" t="n">
-        <v>448.4326398740625</v>
+        <v>607.1384398313489</v>
       </c>
       <c r="T8" t="n">
-        <v>448.4326398740625</v>
+        <v>607.1384398313489</v>
       </c>
       <c r="U8" t="n">
-        <v>448.4326398740625</v>
+        <v>607.1384398313489</v>
       </c>
       <c r="V8" t="n">
-        <v>448.4326398740625</v>
+        <v>607.1384398313489</v>
       </c>
       <c r="W8" t="n">
-        <v>448.4326398740625</v>
+        <v>607.1384398313489</v>
       </c>
       <c r="X8" t="n">
-        <v>448.4326398740625</v>
+        <v>607.1384398313489</v>
       </c>
       <c r="Y8" t="n">
-        <v>448.4326398740625</v>
+        <v>607.1384398313489</v>
       </c>
     </row>
     <row r="9">
@@ -4857,31 +4857,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>329.9810992711894</v>
+        <v>596.079420437708</v>
       </c>
       <c r="C9" t="n">
-        <v>171.2752993139032</v>
+        <v>596.079420437708</v>
       </c>
       <c r="D9" t="n">
-        <v>171.2752993139032</v>
+        <v>447.1450107764567</v>
       </c>
       <c r="E9" t="n">
-        <v>12.56949935661706</v>
+        <v>288.4392108191705</v>
       </c>
       <c r="F9" t="n">
-        <v>12.56949935661706</v>
+        <v>141.9046528460555</v>
       </c>
       <c r="G9" t="n">
-        <v>12.56949935661706</v>
+        <v>141.9046528460555</v>
       </c>
       <c r="H9" t="n">
-        <v>12.56949935661706</v>
+        <v>39.23347631571727</v>
       </c>
       <c r="I9" t="n">
-        <v>12.56949935661706</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="J9" t="n">
-        <v>12.56949935661706</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="K9" t="n">
         <v>51.41474465792123</v>
@@ -4890,43 +4890,43 @@
         <v>149.9695119216955</v>
       </c>
       <c r="M9" t="n">
-        <v>284.3351449627279</v>
+        <v>284.3351449627281</v>
       </c>
       <c r="N9" t="n">
-        <v>436.6656814086845</v>
+        <v>436.6656814086847</v>
       </c>
       <c r="O9" t="n">
-        <v>553.7985668721248</v>
+        <v>553.798566872125</v>
       </c>
       <c r="P9" t="n">
-        <v>628.4749678308532</v>
+        <v>628.4749678308534</v>
       </c>
       <c r="Q9" t="n">
-        <v>628.4749678308532</v>
+        <v>628.4749678308534</v>
       </c>
       <c r="R9" t="n">
-        <v>628.4749678308532</v>
+        <v>596.079420437708</v>
       </c>
       <c r="S9" t="n">
-        <v>628.4749678308532</v>
+        <v>596.079420437708</v>
       </c>
       <c r="T9" t="n">
-        <v>628.4749678308532</v>
+        <v>596.079420437708</v>
       </c>
       <c r="U9" t="n">
-        <v>628.4749678308532</v>
+        <v>596.079420437708</v>
       </c>
       <c r="V9" t="n">
-        <v>628.4749678308532</v>
+        <v>596.079420437708</v>
       </c>
       <c r="W9" t="n">
-        <v>628.4749678308532</v>
+        <v>596.079420437708</v>
       </c>
       <c r="X9" t="n">
-        <v>469.769167873567</v>
+        <v>596.079420437708</v>
       </c>
       <c r="Y9" t="n">
-        <v>329.9810992711894</v>
+        <v>596.079420437708</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>339.2458387691418</v>
+        <v>344.7384823243353</v>
       </c>
       <c r="C10" t="n">
-        <v>339.2458387691418</v>
+        <v>344.7384823243353</v>
       </c>
       <c r="D10" t="n">
-        <v>189.1291993568061</v>
+        <v>344.7384823243353</v>
       </c>
       <c r="E10" t="n">
-        <v>41.21610577441296</v>
+        <v>196.8253887419422</v>
       </c>
       <c r="F10" t="n">
-        <v>41.21610577441296</v>
+        <v>196.8253887419422</v>
       </c>
       <c r="G10" t="n">
-        <v>41.21610577441296</v>
+        <v>196.8253887419422</v>
       </c>
       <c r="H10" t="n">
-        <v>41.21610577441296</v>
+        <v>41.21610577441295</v>
       </c>
       <c r="I10" t="n">
-        <v>41.21610577441296</v>
+        <v>41.21610577441295</v>
       </c>
       <c r="J10" t="n">
-        <v>12.56949935661706</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="K10" t="n">
-        <v>96.26795780325845</v>
+        <v>12.56949935661707</v>
       </c>
       <c r="L10" t="n">
-        <v>251.8155123413946</v>
+        <v>168.1170538947533</v>
       </c>
       <c r="M10" t="n">
-        <v>355.2282786210024</v>
+        <v>323.6646084328895</v>
       </c>
       <c r="N10" t="n">
-        <v>368.1004881433286</v>
+        <v>475.4872381248962</v>
       </c>
       <c r="O10" t="n">
-        <v>521.0882178492857</v>
+        <v>628.4749678308534</v>
       </c>
       <c r="P10" t="n">
-        <v>628.4749678308532</v>
+        <v>628.4749678308534</v>
       </c>
       <c r="Q10" t="n">
-        <v>619.2044232295192</v>
+        <v>619.2044232295194</v>
       </c>
       <c r="R10" t="n">
-        <v>619.2044232295192</v>
+        <v>619.2044232295194</v>
       </c>
       <c r="S10" t="n">
-        <v>619.2044232295192</v>
+        <v>619.2044232295194</v>
       </c>
       <c r="T10" t="n">
-        <v>497.951638726428</v>
+        <v>619.2044232295194</v>
       </c>
       <c r="U10" t="n">
-        <v>497.951638726428</v>
+        <v>619.2044232295194</v>
       </c>
       <c r="V10" t="n">
-        <v>497.951638726428</v>
+        <v>619.2044232295194</v>
       </c>
       <c r="W10" t="n">
-        <v>497.951638726428</v>
+        <v>619.2044232295194</v>
       </c>
       <c r="X10" t="n">
-        <v>339.2458387691418</v>
+        <v>503.4442822816215</v>
       </c>
       <c r="Y10" t="n">
-        <v>339.2458387691418</v>
+        <v>344.7384823243353</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1533.918936517076</v>
+        <v>1238.038871968309</v>
       </c>
       <c r="C11" t="n">
-        <v>1164.956419576664</v>
+        <v>869.076355027897</v>
       </c>
       <c r="D11" t="n">
-        <v>1164.956419576664</v>
+        <v>869.076355027897</v>
       </c>
       <c r="E11" t="n">
-        <v>779.1681669784198</v>
+        <v>483.2881024296527</v>
       </c>
       <c r="F11" t="n">
-        <v>779.1681669784198</v>
+        <v>72.30219764004518</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234163</v>
+        <v>72.30219764004518</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>72.30219764004518</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5054,13 +5054,13 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
@@ -5069,22 +5069,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>2866.09759726723</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V11" t="n">
-        <v>2535.03470992366</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W11" t="n">
-        <v>2182.266054653545</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X11" t="n">
-        <v>1920.518776581197</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y11" t="n">
-        <v>1920.518776581197</v>
+        <v>1624.63871203243</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
         <v>2407.411984886741</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>403.1511359853714</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C13" t="n">
-        <v>234.2149530574645</v>
+        <v>294.7232451715944</v>
       </c>
       <c r="D13" t="n">
-        <v>234.2149530574645</v>
+        <v>294.7232451715944</v>
       </c>
       <c r="E13" t="n">
-        <v>234.2149530574645</v>
+        <v>294.7232451715944</v>
       </c>
       <c r="F13" t="n">
-        <v>234.2149530574645</v>
+        <v>147.8332976736841</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279953</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760402</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U13" t="n">
-        <v>1424.011591242373</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V13" t="n">
-        <v>1169.327103036486</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W13" t="n">
-        <v>879.9099329995252</v>
+        <v>1094.090022971288</v>
       </c>
       <c r="X13" t="n">
-        <v>651.9203821015078</v>
+        <v>866.100472073271</v>
       </c>
       <c r="Y13" t="n">
-        <v>584.7996008156111</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2191.427264496927</v>
+        <v>2332.993532441038</v>
       </c>
       <c r="C14" t="n">
-        <v>1822.464747556515</v>
+        <v>1964.031015500626</v>
       </c>
       <c r="D14" t="n">
-        <v>1464.199048949765</v>
+        <v>1605.765316893876</v>
       </c>
       <c r="E14" t="n">
-        <v>1078.410796351521</v>
+        <v>1219.977064295632</v>
       </c>
       <c r="F14" t="n">
-        <v>667.424891561913</v>
+        <v>808.9911595060241</v>
       </c>
       <c r="G14" t="n">
-        <v>252.8270352141134</v>
+        <v>394.3933031582243</v>
       </c>
       <c r="H14" t="n">
-        <v>101.6701365950175</v>
+        <v>101.6701365950174</v>
       </c>
       <c r="I14" t="n">
-        <v>77.9700155867104</v>
+        <v>77.97001558671043</v>
       </c>
       <c r="J14" t="n">
-        <v>306.3281196226299</v>
+        <v>306.3281196226302</v>
       </c>
       <c r="K14" t="n">
-        <v>699.3162400867136</v>
+        <v>699.3162400867146</v>
       </c>
       <c r="L14" t="n">
         <v>1223.754515767052</v>
@@ -5291,37 +5291,37 @@
         <v>2468.739169011697</v>
       </c>
       <c r="O14" t="n">
-        <v>3050.084079249604</v>
+        <v>3050.084079249605</v>
       </c>
       <c r="P14" t="n">
-        <v>3511.747509388856</v>
+        <v>3511.747509388857</v>
       </c>
       <c r="Q14" t="n">
-        <v>3810.264772381463</v>
+        <v>3810.264772381465</v>
       </c>
       <c r="R14" t="n">
-        <v>3898.50077933552</v>
+        <v>3898.500779335522</v>
       </c>
       <c r="S14" t="n">
-        <v>3799.024917244271</v>
+        <v>3898.500779335522</v>
       </c>
       <c r="T14" t="n">
-        <v>3595.124704019528</v>
+        <v>3898.500779335522</v>
       </c>
       <c r="U14" t="n">
-        <v>3341.63219479794</v>
+        <v>3776.890673379925</v>
       </c>
       <c r="V14" t="n">
-        <v>3341.63219479794</v>
+        <v>3445.827786036354</v>
       </c>
       <c r="W14" t="n">
-        <v>3341.63219479794</v>
+        <v>3093.05913076624</v>
       </c>
       <c r="X14" t="n">
-        <v>2968.166436536861</v>
+        <v>2719.59337250516</v>
       </c>
       <c r="Y14" t="n">
-        <v>2578.027104561049</v>
+        <v>2719.59337250516</v>
       </c>
     </row>
     <row r="15">
@@ -5352,19 +5352,19 @@
         <v>88.2345393087172</v>
       </c>
       <c r="I15" t="n">
-        <v>77.9700155867104</v>
+        <v>77.97001558671043</v>
       </c>
       <c r="J15" t="n">
-        <v>195.1606909838845</v>
+        <v>195.1606909838846</v>
       </c>
       <c r="K15" t="n">
-        <v>473.6130458187278</v>
+        <v>473.613045818728</v>
       </c>
       <c r="L15" t="n">
-        <v>492.963238729467</v>
+        <v>894.3491412042358</v>
       </c>
       <c r="M15" t="n">
-        <v>1003.299285377055</v>
+        <v>1003.299285377054</v>
       </c>
       <c r="N15" t="n">
         <v>1541.551053542851</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>522.8896960793496</v>
+        <v>681.9125345792162</v>
       </c>
       <c r="C16" t="n">
-        <v>522.8896960793496</v>
+        <v>512.9763516513092</v>
       </c>
       <c r="D16" t="n">
-        <v>372.7730566670139</v>
+        <v>512.9763516513092</v>
       </c>
       <c r="E16" t="n">
-        <v>224.8599630846207</v>
+        <v>392.3499132664655</v>
       </c>
       <c r="F16" t="n">
-        <v>77.9700155867104</v>
+        <v>245.4599657685552</v>
       </c>
       <c r="G16" t="n">
-        <v>77.9700155867104</v>
+        <v>77.97001558671043</v>
       </c>
       <c r="H16" t="n">
-        <v>77.9700155867104</v>
+        <v>77.97001558671043</v>
       </c>
       <c r="I16" t="n">
-        <v>77.9700155867104</v>
+        <v>77.97001558671043</v>
       </c>
       <c r="J16" t="n">
         <v>137.844203260728</v>
       </c>
       <c r="K16" t="n">
-        <v>366.0727229464061</v>
+        <v>366.0727229464063</v>
       </c>
       <c r="L16" t="n">
-        <v>713.6530864178801</v>
+        <v>713.6530864178803</v>
       </c>
       <c r="M16" t="n">
-        <v>1090.516968430001</v>
+        <v>1090.516968430002</v>
       </c>
       <c r="N16" t="n">
-        <v>1463.854486081921</v>
+        <v>1463.854486081922</v>
       </c>
       <c r="O16" t="n">
-        <v>1792.675814547232</v>
+        <v>1792.675814547233</v>
       </c>
       <c r="P16" t="n">
         <v>2050.518584460267</v>
       </c>
       <c r="Q16" t="n">
-        <v>2145.600473154462</v>
+        <v>2145.600473154463</v>
       </c>
       <c r="R16" t="n">
-        <v>2065.342164541407</v>
+        <v>2145.600473154463</v>
       </c>
       <c r="S16" t="n">
-        <v>1877.366310477937</v>
+        <v>2145.600473154463</v>
       </c>
       <c r="T16" t="n">
-        <v>1656.509300760327</v>
+        <v>1924.743463436853</v>
       </c>
       <c r="U16" t="n">
-        <v>1367.418045873795</v>
+        <v>1635.652208550321</v>
       </c>
       <c r="V16" t="n">
-        <v>1112.733557667908</v>
+        <v>1380.967720344434</v>
       </c>
       <c r="W16" t="n">
-        <v>823.316387630947</v>
+        <v>1091.550550307473</v>
       </c>
       <c r="X16" t="n">
-        <v>595.3268367329298</v>
+        <v>863.5609994094559</v>
       </c>
       <c r="Y16" t="n">
-        <v>595.3268367329298</v>
+        <v>863.5609994094559</v>
       </c>
     </row>
     <row r="17">
@@ -5495,61 +5495,61 @@
         <v>1803.119314872862</v>
       </c>
       <c r="D17" t="n">
-        <v>1473.152544865334</v>
+        <v>1473.152544865333</v>
       </c>
       <c r="E17" t="n">
-        <v>1115.663220866312</v>
+        <v>1115.663220866311</v>
       </c>
       <c r="F17" t="n">
-        <v>732.976244675926</v>
+        <v>732.9762446759255</v>
       </c>
       <c r="G17" t="n">
         <v>347.009304189863</v>
       </c>
       <c r="H17" t="n">
-        <v>85.98503077810682</v>
+        <v>85.98503077810679</v>
       </c>
       <c r="I17" t="n">
-        <v>85.98503077810682</v>
+        <v>85.98503077810679</v>
       </c>
       <c r="J17" t="n">
         <v>341.9594163578395</v>
       </c>
       <c r="K17" t="n">
-        <v>776.3371840736231</v>
+        <v>776.3371840736213</v>
       </c>
       <c r="L17" t="n">
-        <v>1352.122977092659</v>
+        <v>1352.122977092657</v>
       </c>
       <c r="M17" t="n">
-        <v>2024.465051315454</v>
+        <v>2024.465051315452</v>
       </c>
       <c r="N17" t="n">
-        <v>2712.300131590005</v>
+        <v>2712.300131590003</v>
       </c>
       <c r="O17" t="n">
-        <v>3348.468031939286</v>
+        <v>3348.468031939284</v>
       </c>
       <c r="P17" t="n">
-        <v>3856.921615763891</v>
+        <v>3856.921615763889</v>
       </c>
       <c r="Q17" t="n">
-        <v>4190.576335550435</v>
+        <v>4190.576335550434</v>
       </c>
       <c r="R17" t="n">
-        <v>4299.251538905341</v>
+        <v>4299.25153890534</v>
       </c>
       <c r="S17" t="n">
-        <v>4235.639765157868</v>
+        <v>4235.639765157867</v>
       </c>
       <c r="T17" t="n">
-        <v>4061.491754774006</v>
+        <v>4061.491754774004</v>
       </c>
       <c r="U17" t="n">
         <v>3836.32473313264</v>
       </c>
       <c r="V17" t="n">
-        <v>3533.560774388292</v>
+        <v>3533.560774388291</v>
       </c>
       <c r="W17" t="n">
         <v>3209.091047717399</v>
@@ -5580,34 +5580,34 @@
         <v>458.9338674977768</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3993095246618</v>
+        <v>312.3993095246617</v>
       </c>
       <c r="G18" t="n">
         <v>176.4677682758561</v>
       </c>
       <c r="H18" t="n">
-        <v>90.13382452207873</v>
+        <v>90.13382452207871</v>
       </c>
       <c r="I18" t="n">
-        <v>85.98503077810682</v>
+        <v>85.98503077810679</v>
       </c>
       <c r="J18" t="n">
-        <v>219.6237742723075</v>
+        <v>85.98503077810679</v>
       </c>
       <c r="K18" t="n">
-        <v>526.1884972947106</v>
+        <v>392.5497538005097</v>
       </c>
       <c r="L18" t="n">
-        <v>526.1884972947106</v>
+        <v>851.0863974959052</v>
       </c>
       <c r="M18" t="n">
-        <v>1080.636000883259</v>
+        <v>857.1107588523582</v>
       </c>
       <c r="N18" t="n">
-        <v>1664.166724997506</v>
+        <v>1440.641482966605</v>
       </c>
       <c r="O18" t="n">
-        <v>2175.763540382896</v>
+        <v>1952.238298351996</v>
       </c>
       <c r="P18" t="n">
         <v>2343.506779627458</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>832.1070173698523</v>
+        <v>832.1070173698503</v>
       </c>
       <c r="C19" t="n">
-        <v>757.8978167785488</v>
+        <v>757.8978167785489</v>
       </c>
       <c r="D19" t="n">
-        <v>636.080105965435</v>
+        <v>636.0801059654351</v>
       </c>
       <c r="E19" t="n">
-        <v>516.4659409822639</v>
+        <v>516.465940982264</v>
       </c>
       <c r="F19" t="n">
-        <v>397.8749220835755</v>
+        <v>397.8749220835756</v>
       </c>
       <c r="G19" t="n">
-        <v>258.8328185578471</v>
+        <v>258.8328185578472</v>
       </c>
       <c r="H19" t="n">
         <v>144.131331296049</v>
       </c>
       <c r="I19" t="n">
-        <v>85.98503077810682</v>
+        <v>85.98503077810679</v>
       </c>
       <c r="J19" t="n">
-        <v>183.91398771287</v>
+        <v>183.9139877128697</v>
       </c>
       <c r="K19" t="n">
-        <v>456.8355566736005</v>
+        <v>456.8355566736001</v>
       </c>
       <c r="L19" t="n">
-        <v>853.8511666560116</v>
+        <v>853.8511666560111</v>
       </c>
       <c r="M19" t="n">
-        <v>1281.32987361855</v>
+        <v>1281.329873618549</v>
       </c>
       <c r="N19" t="n">
-        <v>1704.738203667246</v>
+        <v>1704.738203667245</v>
       </c>
       <c r="O19" t="n">
         <v>2081.925329574629</v>
       </c>
       <c r="P19" t="n">
-        <v>2385.156423343467</v>
+        <v>2385.156423343466</v>
       </c>
       <c r="Q19" t="n">
-        <v>2520.195798376265</v>
+        <v>2520.195798376264</v>
       </c>
       <c r="R19" t="n">
-        <v>2474.932315720611</v>
+        <v>2474.93231572061</v>
       </c>
       <c r="S19" t="n">
-        <v>2317.850625847877</v>
+        <v>2317.850625847876</v>
       </c>
       <c r="T19" t="n">
-        <v>2125.928830972584</v>
+        <v>2125.928830972583</v>
       </c>
       <c r="U19" t="n">
-        <v>1865.144627488376</v>
+        <v>1865.144627488375</v>
       </c>
       <c r="V19" t="n">
-        <v>1638.759067881712</v>
+        <v>1638.75906788171</v>
       </c>
       <c r="W19" t="n">
-        <v>1377.640826443973</v>
+        <v>1377.640826443971</v>
       </c>
       <c r="X19" t="n">
-        <v>1177.950204145178</v>
+        <v>1177.950204145176</v>
       </c>
       <c r="Y19" t="n">
-        <v>985.4565536008699</v>
+        <v>985.456553600868</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2143.782903214052</v>
+        <v>2143.782903214051</v>
       </c>
       <c r="C20" t="n">
-        <v>1803.119314872862</v>
+        <v>1803.119314872861</v>
       </c>
       <c r="D20" t="n">
         <v>1473.152544865334</v>
@@ -5750,19 +5750,19 @@
         <v>85.98503077810679</v>
       </c>
       <c r="J20" t="n">
-        <v>341.9594163578397</v>
+        <v>341.959416357839</v>
       </c>
       <c r="K20" t="n">
-        <v>776.3371840736222</v>
+        <v>776.3371840736213</v>
       </c>
       <c r="L20" t="n">
-        <v>1352.122977092658</v>
+        <v>1352.122977092657</v>
       </c>
       <c r="M20" t="n">
-        <v>2024.465051315453</v>
+        <v>2024.465051315452</v>
       </c>
       <c r="N20" t="n">
-        <v>2712.300131590004</v>
+        <v>2712.300131590003</v>
       </c>
       <c r="O20" t="n">
         <v>3348.468031939285</v>
@@ -5792,10 +5792,10 @@
         <v>3209.091047717399</v>
       </c>
       <c r="X20" t="n">
-        <v>2863.924218055542</v>
+        <v>2863.924218055541</v>
       </c>
       <c r="Y20" t="n">
-        <v>2502.083814678952</v>
+        <v>2502.083814678951</v>
       </c>
     </row>
     <row r="21">
@@ -5823,25 +5823,25 @@
         <v>176.4677682758561</v>
       </c>
       <c r="H21" t="n">
-        <v>90.1338245220787</v>
+        <v>90.13382452207871</v>
       </c>
       <c r="I21" t="n">
         <v>85.98503077810679</v>
       </c>
       <c r="J21" t="n">
-        <v>140.4637913277035</v>
+        <v>219.6237742723074</v>
       </c>
       <c r="K21" t="n">
-        <v>447.0285143501066</v>
+        <v>526.1884972947104</v>
       </c>
       <c r="L21" t="n">
-        <v>905.5651580455022</v>
+        <v>984.725140990106</v>
       </c>
       <c r="M21" t="n">
-        <v>1460.01266163405</v>
+        <v>1539.172644578654</v>
       </c>
       <c r="N21" t="n">
-        <v>2043.543385748297</v>
+        <v>2043.543385748298</v>
       </c>
       <c r="O21" t="n">
         <v>2555.140201133688</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>832.1070173698516</v>
+        <v>832.1070173698499</v>
       </c>
       <c r="C22" t="n">
-        <v>691.4697630411667</v>
+        <v>691.469763041165</v>
       </c>
       <c r="D22" t="n">
-        <v>569.652052228053</v>
+        <v>569.6520522280513</v>
       </c>
       <c r="E22" t="n">
-        <v>450.0378872448819</v>
+        <v>516.465940982264</v>
       </c>
       <c r="F22" t="n">
-        <v>331.4468683461936</v>
+        <v>397.8749220835756</v>
       </c>
       <c r="G22" t="n">
-        <v>192.4047648204653</v>
+        <v>258.8328185578472</v>
       </c>
       <c r="H22" t="n">
         <v>144.131331296049</v>
@@ -5908,13 +5908,13 @@
         <v>85.98503077810679</v>
       </c>
       <c r="J22" t="n">
-        <v>183.91398771287</v>
+        <v>183.9139877128699</v>
       </c>
       <c r="K22" t="n">
-        <v>456.8355566736008</v>
+        <v>456.8355566736003</v>
       </c>
       <c r="L22" t="n">
-        <v>853.8511666560119</v>
+        <v>853.8511666560113</v>
       </c>
       <c r="M22" t="n">
         <v>1281.32987361855</v>
@@ -5926,34 +5926,34 @@
         <v>2081.925329574629</v>
       </c>
       <c r="P22" t="n">
-        <v>2385.156423343467</v>
+        <v>2385.156423343466</v>
       </c>
       <c r="Q22" t="n">
-        <v>2520.195798376265</v>
+        <v>2520.195798376264</v>
       </c>
       <c r="R22" t="n">
-        <v>2474.932315720611</v>
+        <v>2474.93231572061</v>
       </c>
       <c r="S22" t="n">
-        <v>2317.850625847877</v>
+        <v>2317.850625847876</v>
       </c>
       <c r="T22" t="n">
-        <v>2125.928830972584</v>
+        <v>2125.928830972583</v>
       </c>
       <c r="U22" t="n">
-        <v>1865.144627488376</v>
+        <v>1865.144627488375</v>
       </c>
       <c r="V22" t="n">
-        <v>1638.759067881712</v>
+        <v>1638.759067881711</v>
       </c>
       <c r="W22" t="n">
-        <v>1377.640826443973</v>
+        <v>1377.640826443972</v>
       </c>
       <c r="X22" t="n">
-        <v>1177.950204145177</v>
+        <v>1177.950204145176</v>
       </c>
       <c r="Y22" t="n">
-        <v>985.4565536008693</v>
+        <v>985.4565536008677</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2143.782903214052</v>
+        <v>2143.782903214053</v>
       </c>
       <c r="C23" t="n">
-        <v>1803.119314872862</v>
+        <v>1803.119314872863</v>
       </c>
       <c r="D23" t="n">
         <v>1473.152544865334</v>
@@ -5975,64 +5975,64 @@
         <v>1115.663220866312</v>
       </c>
       <c r="F23" t="n">
-        <v>732.976244675926</v>
+        <v>732.9762446759264</v>
       </c>
       <c r="G23" t="n">
         <v>347.009304189863</v>
       </c>
       <c r="H23" t="n">
-        <v>85.98503077810679</v>
+        <v>85.98503077810682</v>
       </c>
       <c r="I23" t="n">
-        <v>85.98503077810679</v>
+        <v>85.98503077810682</v>
       </c>
       <c r="J23" t="n">
-        <v>341.9594163578404</v>
+        <v>341.9594163578394</v>
       </c>
       <c r="K23" t="n">
-        <v>776.3371840736228</v>
+        <v>776.3371840736218</v>
       </c>
       <c r="L23" t="n">
-        <v>1352.122977092658</v>
+        <v>1352.122977092657</v>
       </c>
       <c r="M23" t="n">
-        <v>2024.465051315454</v>
+        <v>2024.465051315453</v>
       </c>
       <c r="N23" t="n">
-        <v>2712.300131590005</v>
+        <v>2712.300131590004</v>
       </c>
       <c r="O23" t="n">
-        <v>3348.468031939286</v>
+        <v>3348.468031939285</v>
       </c>
       <c r="P23" t="n">
-        <v>3856.92161576389</v>
+        <v>3856.921615763889</v>
       </c>
       <c r="Q23" t="n">
-        <v>4190.576335550434</v>
+        <v>4190.576335550433</v>
       </c>
       <c r="R23" t="n">
-        <v>4299.25153890534</v>
+        <v>4299.251538905341</v>
       </c>
       <c r="S23" t="n">
-        <v>4235.639765157867</v>
+        <v>4235.639765157868</v>
       </c>
       <c r="T23" t="n">
-        <v>4061.491754774004</v>
+        <v>4061.491754774005</v>
       </c>
       <c r="U23" t="n">
-        <v>3836.32473313264</v>
+        <v>3836.324733132641</v>
       </c>
       <c r="V23" t="n">
-        <v>3533.560774388291</v>
+        <v>3533.560774388292</v>
       </c>
       <c r="W23" t="n">
-        <v>3209.091047717399</v>
+        <v>3209.0910477174</v>
       </c>
       <c r="X23" t="n">
-        <v>2863.924218055541</v>
+        <v>2863.924218055542</v>
       </c>
       <c r="Y23" t="n">
-        <v>2502.083814678951</v>
+        <v>2502.083814678952</v>
       </c>
     </row>
     <row r="24">
@@ -6054,16 +6054,16 @@
         <v>458.9338674977768</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3993095246617</v>
+        <v>312.3993095246618</v>
       </c>
       <c r="G24" t="n">
         <v>176.4677682758561</v>
       </c>
       <c r="H24" t="n">
-        <v>90.13382452207871</v>
+        <v>90.13382452207874</v>
       </c>
       <c r="I24" t="n">
-        <v>85.98503077810679</v>
+        <v>85.98503077810682</v>
       </c>
       <c r="J24" t="n">
         <v>219.6237742723074</v>
@@ -6072,19 +6072,19 @@
         <v>526.1884972947104</v>
       </c>
       <c r="L24" t="n">
-        <v>984.725140990106</v>
+        <v>526.1884972947104</v>
       </c>
       <c r="M24" t="n">
-        <v>1539.172644578654</v>
+        <v>857.1107588523582</v>
       </c>
       <c r="N24" t="n">
-        <v>2122.703368692901</v>
+        <v>1440.641482966605</v>
       </c>
       <c r="O24" t="n">
-        <v>2122.703368692901</v>
+        <v>1952.238298351996</v>
       </c>
       <c r="P24" t="n">
-        <v>2513.971849968363</v>
+        <v>2343.506779627458</v>
       </c>
       <c r="Q24" t="n">
         <v>2555.140201133688</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>898.5350711072336</v>
+        <v>898.5350711072338</v>
       </c>
       <c r="C25" t="n">
-        <v>757.8978167785488</v>
+        <v>757.8978167785489</v>
       </c>
       <c r="D25" t="n">
-        <v>636.080105965435</v>
+        <v>636.0801059654351</v>
       </c>
       <c r="E25" t="n">
-        <v>516.4659409822639</v>
+        <v>516.465940982264</v>
       </c>
       <c r="F25" t="n">
-        <v>397.8749220835755</v>
+        <v>397.8749220835756</v>
       </c>
       <c r="G25" t="n">
-        <v>258.8328185578471</v>
+        <v>258.8328185578472</v>
       </c>
       <c r="H25" t="n">
         <v>144.131331296049</v>
       </c>
       <c r="I25" t="n">
-        <v>85.98503077810679</v>
+        <v>85.98503077810682</v>
       </c>
       <c r="J25" t="n">
         <v>183.9139877128699</v>
@@ -6151,13 +6151,13 @@
         <v>456.8355566736003</v>
       </c>
       <c r="L25" t="n">
-        <v>853.8511666560114</v>
+        <v>853.8511666560112</v>
       </c>
       <c r="M25" t="n">
-        <v>1281.329873618549</v>
+        <v>1281.32987361855</v>
       </c>
       <c r="N25" t="n">
-        <v>1704.738203667245</v>
+        <v>1704.738203667246</v>
       </c>
       <c r="O25" t="n">
         <v>2081.925329574629</v>
@@ -6178,16 +6178,16 @@
         <v>2125.928830972583</v>
       </c>
       <c r="U25" t="n">
-        <v>1865.144627488376</v>
+        <v>1865.144627488375</v>
       </c>
       <c r="V25" t="n">
-        <v>1638.759067881711</v>
+        <v>1705.187121619094</v>
       </c>
       <c r="W25" t="n">
         <v>1444.068880181355</v>
       </c>
       <c r="X25" t="n">
-        <v>1244.378257882559</v>
+        <v>1244.37825788256</v>
       </c>
       <c r="Y25" t="n">
         <v>1051.884607338251</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2143.782903214052</v>
+        <v>2143.782903214053</v>
       </c>
       <c r="C26" t="n">
-        <v>1803.119314872862</v>
+        <v>1803.119314872863</v>
       </c>
       <c r="D26" t="n">
-        <v>1473.152544865334</v>
+        <v>1473.152544865335</v>
       </c>
       <c r="E26" t="n">
-        <v>1115.663220866311</v>
+        <v>1115.663220866312</v>
       </c>
       <c r="F26" t="n">
-        <v>732.9762446759258</v>
+        <v>732.9762446759269</v>
       </c>
       <c r="G26" t="n">
         <v>347.009304189863</v>
       </c>
       <c r="H26" t="n">
-        <v>85.98503077810679</v>
+        <v>85.98503077810682</v>
       </c>
       <c r="I26" t="n">
-        <v>85.98503077810679</v>
+        <v>85.98503077810682</v>
       </c>
       <c r="J26" t="n">
-        <v>341.9594163578395</v>
+        <v>341.9594163578394</v>
       </c>
       <c r="K26" t="n">
-        <v>776.3371840736231</v>
+        <v>776.3371840736218</v>
       </c>
       <c r="L26" t="n">
-        <v>1352.122977092659</v>
+        <v>1352.122977092657</v>
       </c>
       <c r="M26" t="n">
-        <v>2024.465051315454</v>
+        <v>2024.465051315453</v>
       </c>
       <c r="N26" t="n">
-        <v>2712.300131590005</v>
+        <v>2712.300131590004</v>
       </c>
       <c r="O26" t="n">
-        <v>3348.468031939286</v>
+        <v>3348.468031939285</v>
       </c>
       <c r="P26" t="n">
-        <v>3856.92161576389</v>
+        <v>3856.921615763891</v>
       </c>
       <c r="Q26" t="n">
         <v>4190.576335550435</v>
       </c>
       <c r="R26" t="n">
-        <v>4299.25153890534</v>
+        <v>4299.251538905341</v>
       </c>
       <c r="S26" t="n">
-        <v>4235.639765157867</v>
+        <v>4235.639765157868</v>
       </c>
       <c r="T26" t="n">
-        <v>4061.491754774004</v>
+        <v>4061.491754774005</v>
       </c>
       <c r="U26" t="n">
-        <v>3836.32473313264</v>
+        <v>3836.324733132642</v>
       </c>
       <c r="V26" t="n">
-        <v>3533.560774388291</v>
+        <v>3533.560774388293</v>
       </c>
       <c r="W26" t="n">
-        <v>3209.091047717399</v>
+        <v>3209.091047717401</v>
       </c>
       <c r="X26" t="n">
-        <v>2863.924218055542</v>
+        <v>2863.924218055543</v>
       </c>
       <c r="Y26" t="n">
-        <v>2502.083814678952</v>
+        <v>2502.083814678953</v>
       </c>
     </row>
     <row r="27">
@@ -6291,37 +6291,37 @@
         <v>458.9338674977768</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3993095246617</v>
+        <v>312.3993095246618</v>
       </c>
       <c r="G27" t="n">
         <v>176.4677682758561</v>
       </c>
       <c r="H27" t="n">
-        <v>90.13382452207871</v>
+        <v>90.13382452207874</v>
       </c>
       <c r="I27" t="n">
-        <v>85.98503077810679</v>
+        <v>85.98503077810682</v>
       </c>
       <c r="J27" t="n">
-        <v>85.98503077810679</v>
+        <v>219.6237742723074</v>
       </c>
       <c r="K27" t="n">
-        <v>85.98503077810679</v>
+        <v>526.1884972947104</v>
       </c>
       <c r="L27" t="n">
-        <v>544.5216744735023</v>
+        <v>984.725140990106</v>
       </c>
       <c r="M27" t="n">
-        <v>1098.969178062051</v>
+        <v>1539.172644578654</v>
       </c>
       <c r="N27" t="n">
-        <v>1682.499902176297</v>
+        <v>2122.703368692901</v>
       </c>
       <c r="O27" t="n">
-        <v>2194.096717561688</v>
+        <v>2122.703368692901</v>
       </c>
       <c r="P27" t="n">
-        <v>2555.140201133688</v>
+        <v>2513.971849968363</v>
       </c>
       <c r="Q27" t="n">
         <v>2555.140201133688</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>832.1070173698513</v>
+        <v>898.5350711072338</v>
       </c>
       <c r="C28" t="n">
-        <v>691.4697630411664</v>
+        <v>757.8978167785489</v>
       </c>
       <c r="D28" t="n">
-        <v>569.6520522280526</v>
+        <v>636.0801059654351</v>
       </c>
       <c r="E28" t="n">
-        <v>450.0378872448815</v>
+        <v>516.465940982264</v>
       </c>
       <c r="F28" t="n">
         <v>397.8749220835756</v>
@@ -6379,16 +6379,16 @@
         <v>144.131331296049</v>
       </c>
       <c r="I28" t="n">
-        <v>85.98503077810679</v>
+        <v>85.98503077810682</v>
       </c>
       <c r="J28" t="n">
         <v>183.9139877128699</v>
       </c>
       <c r="K28" t="n">
-        <v>456.8355566736003</v>
+        <v>456.8355566736002</v>
       </c>
       <c r="L28" t="n">
-        <v>853.8511666560111</v>
+        <v>853.8511666560109</v>
       </c>
       <c r="M28" t="n">
         <v>1281.329873618549</v>
@@ -6406,28 +6406,28 @@
         <v>2520.195798376263</v>
       </c>
       <c r="R28" t="n">
-        <v>2474.93231572061</v>
+        <v>2474.932315720609</v>
       </c>
       <c r="S28" t="n">
         <v>2317.850625847876</v>
       </c>
       <c r="T28" t="n">
-        <v>2125.928830972583</v>
+        <v>2125.928830972582</v>
       </c>
       <c r="U28" t="n">
-        <v>1865.144627488375</v>
+        <v>1865.144627488376</v>
       </c>
       <c r="V28" t="n">
-        <v>1638.75906788171</v>
+        <v>1638.759067881711</v>
       </c>
       <c r="W28" t="n">
-        <v>1377.640826443971</v>
+        <v>1377.640826443972</v>
       </c>
       <c r="X28" t="n">
-        <v>1177.950204145177</v>
+        <v>1244.37825788256</v>
       </c>
       <c r="Y28" t="n">
-        <v>985.456553600869</v>
+        <v>1051.884607338251</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2143.782903214053</v>
+        <v>2143.782903214052</v>
       </c>
       <c r="C29" t="n">
-        <v>1803.119314872863</v>
+        <v>1803.119314872862</v>
       </c>
       <c r="D29" t="n">
-        <v>1473.152544865335</v>
+        <v>1473.152544865333</v>
       </c>
       <c r="E29" t="n">
-        <v>1115.663220866312</v>
+        <v>1115.663220866311</v>
       </c>
       <c r="F29" t="n">
-        <v>732.9762446759269</v>
+        <v>732.9762446759255</v>
       </c>
       <c r="G29" t="n">
         <v>347.009304189863</v>
       </c>
       <c r="H29" t="n">
-        <v>85.98503077810682</v>
+        <v>85.98503077810679</v>
       </c>
       <c r="I29" t="n">
-        <v>85.98503077810682</v>
+        <v>85.98503077810679</v>
       </c>
       <c r="J29" t="n">
-        <v>341.9594163578413</v>
+        <v>341.9594163578395</v>
       </c>
       <c r="K29" t="n">
-        <v>776.3371840736237</v>
+        <v>776.3371840736213</v>
       </c>
       <c r="L29" t="n">
-        <v>1352.122977092659</v>
+        <v>1352.122977092657</v>
       </c>
       <c r="M29" t="n">
-        <v>2024.465051315455</v>
+        <v>2024.465051315452</v>
       </c>
       <c r="N29" t="n">
-        <v>2712.300131590006</v>
+        <v>2712.300131590003</v>
       </c>
       <c r="O29" t="n">
-        <v>3348.468031939286</v>
+        <v>3348.468031939284</v>
       </c>
       <c r="P29" t="n">
-        <v>3856.921615763891</v>
+        <v>3856.921615763889</v>
       </c>
       <c r="Q29" t="n">
-        <v>4190.576335550435</v>
+        <v>4190.576335550434</v>
       </c>
       <c r="R29" t="n">
-        <v>4299.251538905341</v>
+        <v>4299.25153890534</v>
       </c>
       <c r="S29" t="n">
-        <v>4235.639765157868</v>
+        <v>4235.639765157867</v>
       </c>
       <c r="T29" t="n">
-        <v>4061.491754774005</v>
+        <v>4061.491754774004</v>
       </c>
       <c r="U29" t="n">
-        <v>3836.324733132641</v>
+        <v>3836.32473313264</v>
       </c>
       <c r="V29" t="n">
-        <v>3533.560774388292</v>
+        <v>3533.560774388291</v>
       </c>
       <c r="W29" t="n">
-        <v>3209.0910477174</v>
+        <v>3209.091047717399</v>
       </c>
       <c r="X29" t="n">
-        <v>2863.924218055542</v>
+        <v>2863.924218055541</v>
       </c>
       <c r="Y29" t="n">
-        <v>2502.083814678953</v>
+        <v>2502.083814678952</v>
       </c>
     </row>
     <row r="30">
@@ -6528,37 +6528,37 @@
         <v>458.9338674977768</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3993095246618</v>
+        <v>312.3993095246617</v>
       </c>
       <c r="G30" t="n">
         <v>176.4677682758561</v>
       </c>
       <c r="H30" t="n">
-        <v>90.13382452207874</v>
+        <v>90.13382452207871</v>
       </c>
       <c r="I30" t="n">
-        <v>85.98503077810682</v>
+        <v>85.98503077810679</v>
       </c>
       <c r="J30" t="n">
-        <v>219.6237742723074</v>
+        <v>85.98503077810679</v>
       </c>
       <c r="K30" t="n">
-        <v>526.1884972947104</v>
+        <v>392.5497538005097</v>
       </c>
       <c r="L30" t="n">
-        <v>984.725140990106</v>
+        <v>392.5497538005097</v>
       </c>
       <c r="M30" t="n">
-        <v>1539.172644578654</v>
+        <v>946.9972573890578</v>
       </c>
       <c r="N30" t="n">
-        <v>2043.543385748298</v>
+        <v>1440.641482966605</v>
       </c>
       <c r="O30" t="n">
-        <v>2555.140201133688</v>
+        <v>1952.238298351996</v>
       </c>
       <c r="P30" t="n">
-        <v>2555.140201133688</v>
+        <v>2343.506779627458</v>
       </c>
       <c r="Q30" t="n">
         <v>2555.140201133688</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>898.5350711072338</v>
+        <v>832.1070173698502</v>
       </c>
       <c r="C31" t="n">
-        <v>757.8978167785489</v>
+        <v>691.4697630411653</v>
       </c>
       <c r="D31" t="n">
-        <v>636.0801059654351</v>
+        <v>569.6520522280515</v>
       </c>
       <c r="E31" t="n">
-        <v>516.465940982264</v>
+        <v>450.0378872448804</v>
       </c>
       <c r="F31" t="n">
         <v>397.8749220835756</v>
@@ -6616,22 +6616,22 @@
         <v>144.131331296049</v>
       </c>
       <c r="I31" t="n">
-        <v>85.98503077810682</v>
+        <v>85.98503077810679</v>
       </c>
       <c r="J31" t="n">
-        <v>183.9139877128701</v>
+        <v>183.9139877128699</v>
       </c>
       <c r="K31" t="n">
-        <v>456.8355566736004</v>
+        <v>456.8355566736003</v>
       </c>
       <c r="L31" t="n">
-        <v>853.8511666560114</v>
+        <v>853.8511666560113</v>
       </c>
       <c r="M31" t="n">
         <v>1281.32987361855</v>
       </c>
       <c r="N31" t="n">
-        <v>1704.738203667246</v>
+        <v>1704.738203667245</v>
       </c>
       <c r="O31" t="n">
         <v>2081.925329574629</v>
@@ -6649,22 +6649,22 @@
         <v>2317.850625847876</v>
       </c>
       <c r="T31" t="n">
-        <v>2192.356884709966</v>
+        <v>2125.928830972583</v>
       </c>
       <c r="U31" t="n">
-        <v>1931.572681225758</v>
+        <v>1865.144627488375</v>
       </c>
       <c r="V31" t="n">
-        <v>1705.187121619093</v>
+        <v>1638.75906788171</v>
       </c>
       <c r="W31" t="n">
-        <v>1444.068880181355</v>
+        <v>1377.640826443972</v>
       </c>
       <c r="X31" t="n">
-        <v>1244.37825788256</v>
+        <v>1177.950204145176</v>
       </c>
       <c r="Y31" t="n">
-        <v>1051.884607338251</v>
+        <v>985.4565536008679</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2143.782903214052</v>
+        <v>2143.782903214053</v>
       </c>
       <c r="C32" t="n">
-        <v>1803.119314872862</v>
+        <v>1803.119314872863</v>
       </c>
       <c r="D32" t="n">
         <v>1473.152544865334</v>
@@ -6686,7 +6686,7 @@
         <v>1115.663220866312</v>
       </c>
       <c r="F32" t="n">
-        <v>732.976244675926</v>
+        <v>732.9762446759264</v>
       </c>
       <c r="G32" t="n">
         <v>347.009304189863</v>
@@ -6701,22 +6701,22 @@
         <v>341.9594163578395</v>
       </c>
       <c r="K32" t="n">
-        <v>776.3371840736218</v>
+        <v>776.3371840736213</v>
       </c>
       <c r="L32" t="n">
         <v>1352.122977092657</v>
       </c>
       <c r="M32" t="n">
-        <v>2024.465051315453</v>
+        <v>2024.465051315452</v>
       </c>
       <c r="N32" t="n">
         <v>2712.300131590003</v>
       </c>
       <c r="O32" t="n">
-        <v>3348.468031939286</v>
+        <v>3348.468031939284</v>
       </c>
       <c r="P32" t="n">
-        <v>3856.92161576389</v>
+        <v>3856.921615763889</v>
       </c>
       <c r="Q32" t="n">
         <v>4190.576335550434</v>
@@ -6725,19 +6725,19 @@
         <v>4299.25153890534</v>
       </c>
       <c r="S32" t="n">
-        <v>4235.639765157867</v>
+        <v>4235.639765157868</v>
       </c>
       <c r="T32" t="n">
-        <v>4061.491754774004</v>
+        <v>4061.491754774005</v>
       </c>
       <c r="U32" t="n">
-        <v>3836.32473313264</v>
+        <v>3836.324733132641</v>
       </c>
       <c r="V32" t="n">
         <v>3533.560774388292</v>
       </c>
       <c r="W32" t="n">
-        <v>3209.091047717399</v>
+        <v>3209.0910477174</v>
       </c>
       <c r="X32" t="n">
         <v>2863.924218055542</v>
@@ -6777,22 +6777,22 @@
         <v>85.98503077810679</v>
       </c>
       <c r="J33" t="n">
-        <v>85.98503077810679</v>
+        <v>219.6237742723074</v>
       </c>
       <c r="K33" t="n">
-        <v>85.98503077810679</v>
+        <v>526.1884972947104</v>
       </c>
       <c r="L33" t="n">
-        <v>514.2966767700399</v>
+        <v>984.725140990106</v>
       </c>
       <c r="M33" t="n">
-        <v>1068.744180358588</v>
+        <v>1539.172644578654</v>
       </c>
       <c r="N33" t="n">
-        <v>1652.274904472835</v>
+        <v>2122.703368692901</v>
       </c>
       <c r="O33" t="n">
-        <v>2163.871719858225</v>
+        <v>2555.140201133688</v>
       </c>
       <c r="P33" t="n">
         <v>2555.140201133688</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>898.5350711072338</v>
+        <v>832.1070173698511</v>
       </c>
       <c r="C34" t="n">
-        <v>757.8978167785489</v>
+        <v>691.4697630411662</v>
       </c>
       <c r="D34" t="n">
-        <v>636.0801059654351</v>
+        <v>569.6520522280524</v>
       </c>
       <c r="E34" t="n">
         <v>516.465940982264</v>
@@ -6856,13 +6856,13 @@
         <v>85.98503077810679</v>
       </c>
       <c r="J34" t="n">
-        <v>183.9139877128699</v>
+        <v>183.9139877128696</v>
       </c>
       <c r="K34" t="n">
-        <v>456.8355566736001</v>
+        <v>456.8355566736</v>
       </c>
       <c r="L34" t="n">
-        <v>853.8511666560111</v>
+        <v>853.8511666560109</v>
       </c>
       <c r="M34" t="n">
         <v>1281.329873618549</v>
@@ -6886,22 +6886,22 @@
         <v>2317.850625847876</v>
       </c>
       <c r="T34" t="n">
-        <v>2192.356884709966</v>
+        <v>2125.928830972583</v>
       </c>
       <c r="U34" t="n">
-        <v>1931.572681225759</v>
+        <v>1865.144627488376</v>
       </c>
       <c r="V34" t="n">
-        <v>1705.187121619094</v>
+        <v>1638.759067881711</v>
       </c>
       <c r="W34" t="n">
-        <v>1444.068880181355</v>
+        <v>1377.640826443972</v>
       </c>
       <c r="X34" t="n">
-        <v>1244.37825788256</v>
+        <v>1177.950204145177</v>
       </c>
       <c r="Y34" t="n">
-        <v>1051.884607338251</v>
+        <v>985.4565536008688</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1803.119314872862</v>
       </c>
       <c r="D35" t="n">
-        <v>1473.152544865333</v>
+        <v>1473.152544865334</v>
       </c>
       <c r="E35" t="n">
-        <v>1115.663220866311</v>
+        <v>1115.663220866312</v>
       </c>
       <c r="F35" t="n">
-        <v>732.9762446759255</v>
+        <v>732.976244675926</v>
       </c>
       <c r="G35" t="n">
         <v>347.009304189863</v>
@@ -6962,22 +6962,22 @@
         <v>4299.25153890534</v>
       </c>
       <c r="S35" t="n">
-        <v>4235.639765157867</v>
+        <v>4235.639765157868</v>
       </c>
       <c r="T35" t="n">
-        <v>4061.491754774004</v>
+        <v>4061.491754774005</v>
       </c>
       <c r="U35" t="n">
         <v>3836.32473313264</v>
       </c>
       <c r="V35" t="n">
-        <v>3533.560774388291</v>
+        <v>3533.560774388292</v>
       </c>
       <c r="W35" t="n">
         <v>3209.091047717399</v>
       </c>
       <c r="X35" t="n">
-        <v>2863.924218055541</v>
+        <v>2863.924218055542</v>
       </c>
       <c r="Y35" t="n">
         <v>2502.083814678952</v>
@@ -7014,28 +7014,28 @@
         <v>85.98503077810679</v>
       </c>
       <c r="J36" t="n">
-        <v>85.98503077810679</v>
+        <v>219.6237742723074</v>
       </c>
       <c r="K36" t="n">
-        <v>85.98503077810679</v>
+        <v>526.1884972947104</v>
       </c>
       <c r="L36" t="n">
-        <v>276.5434377703126</v>
+        <v>984.725140990106</v>
       </c>
       <c r="M36" t="n">
-        <v>830.9909413588607</v>
+        <v>1539.172644578654</v>
       </c>
       <c r="N36" t="n">
-        <v>1414.521665473108</v>
+        <v>2122.703368692901</v>
       </c>
       <c r="O36" t="n">
-        <v>1926.118480858498</v>
+        <v>2555.140201133688</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.386962133961</v>
+        <v>2555.140201133688</v>
       </c>
       <c r="Q36" t="n">
-        <v>2529.020383640191</v>
+        <v>2555.140201133688</v>
       </c>
       <c r="R36" t="n">
         <v>2555.140201133688</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>898.5350711072338</v>
+        <v>832.1070173698499</v>
       </c>
       <c r="C37" t="n">
-        <v>757.8978167785489</v>
+        <v>691.469763041165</v>
       </c>
       <c r="D37" t="n">
-        <v>636.0801059654351</v>
+        <v>569.6520522280513</v>
       </c>
       <c r="E37" t="n">
-        <v>516.465940982264</v>
+        <v>516.4659409822639</v>
       </c>
       <c r="F37" t="n">
         <v>397.8749220835756</v>
@@ -7093,7 +7093,7 @@
         <v>85.98503077810679</v>
       </c>
       <c r="J37" t="n">
-        <v>183.9139877128696</v>
+        <v>183.9139877128698</v>
       </c>
       <c r="K37" t="n">
         <v>456.8355566736002</v>
@@ -7102,13 +7102,13 @@
         <v>853.8511666560112</v>
       </c>
       <c r="M37" t="n">
-        <v>1281.329873618549</v>
+        <v>1281.32987361855</v>
       </c>
       <c r="N37" t="n">
-        <v>1704.738203667245</v>
+        <v>1704.738203667246</v>
       </c>
       <c r="O37" t="n">
-        <v>2081.925329574628</v>
+        <v>2081.925329574629</v>
       </c>
       <c r="P37" t="n">
         <v>2385.156423343466</v>
@@ -7123,22 +7123,22 @@
         <v>2317.850625847876</v>
       </c>
       <c r="T37" t="n">
-        <v>2192.356884709966</v>
+        <v>2125.928830972583</v>
       </c>
       <c r="U37" t="n">
-        <v>1931.572681225758</v>
+        <v>1865.144627488375</v>
       </c>
       <c r="V37" t="n">
-        <v>1705.187121619093</v>
+        <v>1638.75906788171</v>
       </c>
       <c r="W37" t="n">
-        <v>1444.068880181355</v>
+        <v>1377.640826443972</v>
       </c>
       <c r="X37" t="n">
-        <v>1244.378257882559</v>
+        <v>1177.950204145176</v>
       </c>
       <c r="Y37" t="n">
-        <v>1051.884607338251</v>
+        <v>985.4565536008677</v>
       </c>
     </row>
     <row r="38">
@@ -7263,16 +7263,16 @@
         <v>1539.172644578654</v>
       </c>
       <c r="N39" t="n">
-        <v>1805.79014674857</v>
+        <v>2122.703368692901</v>
       </c>
       <c r="O39" t="n">
-        <v>2317.386962133961</v>
+        <v>2555.140201133688</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.386962133961</v>
+        <v>2555.140201133688</v>
       </c>
       <c r="Q39" t="n">
-        <v>2529.020383640191</v>
+        <v>2555.140201133688</v>
       </c>
       <c r="R39" t="n">
         <v>2555.140201133688</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>832.1070173698497</v>
+        <v>832.1070173698504</v>
       </c>
       <c r="C40" t="n">
-        <v>691.4697630411647</v>
+        <v>691.4697630411654</v>
       </c>
       <c r="D40" t="n">
-        <v>569.6520522280509</v>
+        <v>569.6520522280516</v>
       </c>
       <c r="E40" t="n">
-        <v>450.0378872448798</v>
+        <v>450.0378872448805</v>
       </c>
       <c r="F40" t="n">
         <v>397.8749220835756</v>
@@ -7342,7 +7342,7 @@
         <v>1281.32987361855</v>
       </c>
       <c r="N40" t="n">
-        <v>1704.738203667245</v>
+        <v>1704.738203667246</v>
       </c>
       <c r="O40" t="n">
         <v>2081.925329574629</v>
@@ -7351,16 +7351,16 @@
         <v>2385.156423343466</v>
       </c>
       <c r="Q40" t="n">
-        <v>2520.195798376263</v>
+        <v>2520.195798376264</v>
       </c>
       <c r="R40" t="n">
-        <v>2474.932315720609</v>
+        <v>2474.93231572061</v>
       </c>
       <c r="S40" t="n">
         <v>2317.850625847876</v>
       </c>
       <c r="T40" t="n">
-        <v>2125.928830972582</v>
+        <v>2125.928830972583</v>
       </c>
       <c r="U40" t="n">
         <v>1865.144627488375</v>
@@ -7375,7 +7375,7 @@
         <v>1177.950204145176</v>
       </c>
       <c r="Y40" t="n">
-        <v>985.4565536008674</v>
+        <v>985.4565536008681</v>
       </c>
     </row>
     <row r="41">
@@ -7409,25 +7409,25 @@
         <v>85.98503077810679</v>
       </c>
       <c r="J41" t="n">
-        <v>341.9594163578395</v>
+        <v>341.959416357839</v>
       </c>
       <c r="K41" t="n">
-        <v>776.3371840736231</v>
+        <v>776.3371840736213</v>
       </c>
       <c r="L41" t="n">
-        <v>1352.122977092659</v>
+        <v>1352.122977092657</v>
       </c>
       <c r="M41" t="n">
-        <v>2024.465051315454</v>
+        <v>2024.465051315452</v>
       </c>
       <c r="N41" t="n">
-        <v>2712.300131590005</v>
+        <v>2712.300131590003</v>
       </c>
       <c r="O41" t="n">
         <v>3348.468031939286</v>
       </c>
       <c r="P41" t="n">
-        <v>3856.92161576389</v>
+        <v>3856.921615763889</v>
       </c>
       <c r="Q41" t="n">
         <v>4190.576335550434</v>
@@ -7445,7 +7445,7 @@
         <v>3836.32473313264</v>
       </c>
       <c r="V41" t="n">
-        <v>3533.560774388292</v>
+        <v>3533.560774388291</v>
       </c>
       <c r="W41" t="n">
         <v>3209.091047717399</v>
@@ -7488,25 +7488,25 @@
         <v>85.98503077810679</v>
       </c>
       <c r="J42" t="n">
-        <v>219.6237742723074</v>
+        <v>85.98503077810679</v>
       </c>
       <c r="K42" t="n">
-        <v>526.1884972947104</v>
+        <v>392.5497538005097</v>
       </c>
       <c r="L42" t="n">
-        <v>984.725140990106</v>
+        <v>392.5497538005097</v>
       </c>
       <c r="M42" t="n">
-        <v>1539.172644578654</v>
+        <v>857.1107588523582</v>
       </c>
       <c r="N42" t="n">
-        <v>2122.703368692901</v>
+        <v>1440.641482966605</v>
       </c>
       <c r="O42" t="n">
-        <v>2122.703368692901</v>
+        <v>1952.238298351996</v>
       </c>
       <c r="P42" t="n">
-        <v>2513.971849968363</v>
+        <v>2343.506779627458</v>
       </c>
       <c r="Q42" t="n">
         <v>2555.140201133688</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>832.1070173698511</v>
+        <v>832.1070173698504</v>
       </c>
       <c r="C43" t="n">
-        <v>691.4697630411662</v>
+        <v>691.4697630411655</v>
       </c>
       <c r="D43" t="n">
-        <v>569.6520522280524</v>
+        <v>569.6520522280517</v>
       </c>
       <c r="E43" t="n">
-        <v>458.3196404643217</v>
+        <v>450.0378872448806</v>
       </c>
       <c r="F43" t="n">
-        <v>339.7286215656333</v>
+        <v>397.8749220835756</v>
       </c>
       <c r="G43" t="n">
-        <v>200.686518039905</v>
+        <v>258.8328185578472</v>
       </c>
       <c r="H43" t="n">
-        <v>85.98503077810679</v>
+        <v>144.131331296049</v>
       </c>
       <c r="I43" t="n">
         <v>85.98503077810679</v>
       </c>
       <c r="J43" t="n">
-        <v>183.9139877128699</v>
+        <v>183.9139877128698</v>
       </c>
       <c r="K43" t="n">
         <v>456.8355566736002</v>
@@ -7576,10 +7576,10 @@
         <v>853.8511666560112</v>
       </c>
       <c r="M43" t="n">
-        <v>1281.329873618549</v>
+        <v>1281.32987361855</v>
       </c>
       <c r="N43" t="n">
-        <v>1704.738203667245</v>
+        <v>1704.738203667246</v>
       </c>
       <c r="O43" t="n">
         <v>2081.925329574629</v>
@@ -7588,7 +7588,7 @@
         <v>2385.156423343466</v>
       </c>
       <c r="Q43" t="n">
-        <v>2520.195798376264</v>
+        <v>2520.195798376263</v>
       </c>
       <c r="R43" t="n">
         <v>2474.93231572061</v>
@@ -7600,19 +7600,19 @@
         <v>2125.928830972583</v>
       </c>
       <c r="U43" t="n">
-        <v>1865.144627488376</v>
+        <v>1865.144627488375</v>
       </c>
       <c r="V43" t="n">
-        <v>1638.759067881711</v>
+        <v>1638.75906788171</v>
       </c>
       <c r="W43" t="n">
         <v>1377.640826443972</v>
       </c>
       <c r="X43" t="n">
-        <v>1177.950204145177</v>
+        <v>1177.950204145176</v>
       </c>
       <c r="Y43" t="n">
-        <v>985.4565536008688</v>
+        <v>985.4565536008681</v>
       </c>
     </row>
     <row r="44">
@@ -7628,67 +7628,67 @@
         <v>1803.119314872862</v>
       </c>
       <c r="D44" t="n">
-        <v>1473.152544865333</v>
+        <v>1473.152544865334</v>
       </c>
       <c r="E44" t="n">
-        <v>1115.663220866311</v>
+        <v>1115.663220866312</v>
       </c>
       <c r="F44" t="n">
-        <v>732.9762446759255</v>
+        <v>732.9762446759264</v>
       </c>
       <c r="G44" t="n">
-        <v>347.009304189863</v>
+        <v>347.0093041898629</v>
       </c>
       <c r="H44" t="n">
-        <v>85.98503077810679</v>
+        <v>85.98503077810678</v>
       </c>
       <c r="I44" t="n">
-        <v>85.98503077810679</v>
+        <v>85.98503077810678</v>
       </c>
       <c r="J44" t="n">
-        <v>341.9594163578395</v>
+        <v>341.9594163578388</v>
       </c>
       <c r="K44" t="n">
-        <v>776.3371840736231</v>
+        <v>776.3371840736211</v>
       </c>
       <c r="L44" t="n">
-        <v>1352.122977092659</v>
+        <v>1352.122977092657</v>
       </c>
       <c r="M44" t="n">
-        <v>2024.465051315454</v>
+        <v>2024.465051315452</v>
       </c>
       <c r="N44" t="n">
-        <v>2712.300131590005</v>
+        <v>2712.300131590003</v>
       </c>
       <c r="O44" t="n">
-        <v>3348.468031939286</v>
+        <v>3348.468031939284</v>
       </c>
       <c r="P44" t="n">
-        <v>3856.92161576389</v>
+        <v>3856.921615763888</v>
       </c>
       <c r="Q44" t="n">
-        <v>4190.576335550434</v>
+        <v>4190.576335550433</v>
       </c>
       <c r="R44" t="n">
-        <v>4299.25153890534</v>
+        <v>4299.251538905339</v>
       </c>
       <c r="S44" t="n">
-        <v>4235.639765157867</v>
+        <v>4235.639765157866</v>
       </c>
       <c r="T44" t="n">
-        <v>4061.491754774004</v>
+        <v>4061.491754774003</v>
       </c>
       <c r="U44" t="n">
         <v>3836.32473313264</v>
       </c>
       <c r="V44" t="n">
-        <v>3533.560774388291</v>
+        <v>3533.560774388292</v>
       </c>
       <c r="W44" t="n">
         <v>3209.091047717399</v>
       </c>
       <c r="X44" t="n">
-        <v>2863.924218055541</v>
+        <v>2863.924218055542</v>
       </c>
       <c r="Y44" t="n">
         <v>2502.083814678952</v>
@@ -7719,10 +7719,10 @@
         <v>176.4677682758561</v>
       </c>
       <c r="H45" t="n">
-        <v>90.13382452207871</v>
+        <v>90.1338245220787</v>
       </c>
       <c r="I45" t="n">
-        <v>85.98503077810679</v>
+        <v>85.98503077810678</v>
       </c>
       <c r="J45" t="n">
         <v>219.6237742723074</v>
@@ -7734,16 +7734,16 @@
         <v>984.725140990106</v>
       </c>
       <c r="M45" t="n">
-        <v>1539.172644578654</v>
+        <v>984.725140990106</v>
       </c>
       <c r="N45" t="n">
-        <v>2122.703368692901</v>
+        <v>1568.255865104353</v>
       </c>
       <c r="O45" t="n">
-        <v>2122.703368692901</v>
+        <v>2079.852680489743</v>
       </c>
       <c r="P45" t="n">
-        <v>2513.971849968363</v>
+        <v>2471.121161765206</v>
       </c>
       <c r="Q45" t="n">
         <v>2555.140201133688</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>832.1070173698508</v>
+        <v>898.5350711072329</v>
       </c>
       <c r="C46" t="n">
-        <v>691.4697630411659</v>
+        <v>757.8978167785481</v>
       </c>
       <c r="D46" t="n">
-        <v>569.6520522280522</v>
+        <v>636.0801059654344</v>
       </c>
       <c r="E46" t="n">
-        <v>450.037887244881</v>
+        <v>516.4659409822634</v>
       </c>
       <c r="F46" t="n">
-        <v>339.7286215656333</v>
+        <v>397.8749220835751</v>
       </c>
       <c r="G46" t="n">
-        <v>200.686518039905</v>
+        <v>258.8328185578469</v>
       </c>
       <c r="H46" t="n">
-        <v>85.98503077810679</v>
+        <v>144.1313312960489</v>
       </c>
       <c r="I46" t="n">
-        <v>85.98503077810679</v>
+        <v>85.98503077810678</v>
       </c>
       <c r="J46" t="n">
-        <v>183.9139877128699</v>
+        <v>183.91398771287</v>
       </c>
       <c r="K46" t="n">
-        <v>456.8355566736002</v>
+        <v>456.8355566736003</v>
       </c>
       <c r="L46" t="n">
-        <v>853.8511666560112</v>
+        <v>853.8511666560114</v>
       </c>
       <c r="M46" t="n">
         <v>1281.32987361855</v>
       </c>
       <c r="N46" t="n">
-        <v>1704.738203667245</v>
+        <v>1704.738203667246</v>
       </c>
       <c r="O46" t="n">
         <v>2081.925329574629</v>
@@ -7828,28 +7828,28 @@
         <v>2520.195798376264</v>
       </c>
       <c r="R46" t="n">
-        <v>2474.93231572061</v>
+        <v>2474.932315720611</v>
       </c>
       <c r="S46" t="n">
-        <v>2317.850625847876</v>
+        <v>2317.850625847877</v>
       </c>
       <c r="T46" t="n">
         <v>2125.928830972583</v>
       </c>
       <c r="U46" t="n">
-        <v>1865.144627488375</v>
+        <v>1931.572681225757</v>
       </c>
       <c r="V46" t="n">
-        <v>1638.75906788171</v>
+        <v>1705.187121619092</v>
       </c>
       <c r="W46" t="n">
-        <v>1377.640826443972</v>
+        <v>1444.068880181354</v>
       </c>
       <c r="X46" t="n">
-        <v>1177.950204145176</v>
+        <v>1244.378257882559</v>
       </c>
       <c r="Y46" t="n">
-        <v>985.4565536008686</v>
+        <v>1051.88460733825</v>
       </c>
     </row>
   </sheetData>
@@ -7982,16 +7982,16 @@
         <v>53.28984570098882</v>
       </c>
       <c r="L2" t="n">
-        <v>28.8362588753597</v>
+        <v>37.70011631586138</v>
       </c>
       <c r="M2" t="n">
-        <v>0.09656339947136416</v>
+        <v>14.08801877595883</v>
       </c>
       <c r="N2" t="n">
-        <v>8.863857440501675</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>23.15337836011724</v>
+        <v>9.161922983629779</v>
       </c>
       <c r="P2" t="n">
         <v>56.66044049156213</v>
@@ -8140,7 +8140,7 @@
         <v>60.67557455063191</v>
       </c>
       <c r="L4" t="n">
-        <v>61.42742446524517</v>
+        <v>47.4359690887577</v>
       </c>
       <c r="M4" t="n">
         <v>60.7148388031226</v>
@@ -8149,7 +8149,7 @@
         <v>51.10165499429822</v>
       </c>
       <c r="O4" t="n">
-        <v>55.31770395088348</v>
+        <v>69.30915932737095</v>
       </c>
       <c r="P4" t="n">
         <v>80.57982383258377</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>69.75247211164648</v>
+        <v>84.11432969445627</v>
       </c>
       <c r="K5" t="n">
         <v>53.28984570098882</v>
@@ -8222,13 +8222,13 @@
         <v>28.8362588753597</v>
       </c>
       <c r="M5" t="n">
-        <v>14.45842098228115</v>
+        <v>0.09656339947136416</v>
       </c>
       <c r="N5" t="n">
-        <v>9.799570975166912</v>
+        <v>9.219293901113987</v>
       </c>
       <c r="O5" t="n">
-        <v>22.94350349238665</v>
+        <v>23.52378056643957</v>
       </c>
       <c r="P5" t="n">
         <v>57.03084269788445</v>
@@ -8377,10 +8377,10 @@
         <v>60.67557455063191</v>
       </c>
       <c r="L7" t="n">
-        <v>47.4359690887577</v>
+        <v>61.21754959751456</v>
       </c>
       <c r="M7" t="n">
-        <v>60.50496393539198</v>
+        <v>61.08524100944491</v>
       </c>
       <c r="N7" t="n">
         <v>52.03736852896346</v>
@@ -8389,7 +8389,7 @@
         <v>69.67956153369327</v>
       </c>
       <c r="P7" t="n">
-        <v>80.9502260389061</v>
+        <v>66.5883684560963</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.091680627731989</v>
+        <v>56.36325065172233</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8468,10 +8468,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>49.27157002399053</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.9757828529239987</v>
+        <v>0.9757828529239703</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>23.23168261818576</v>
+        <v>23.23168261818573</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8611,22 +8611,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7437663446525</v>
+        <v>22.1998689238026</v>
       </c>
       <c r="L10" t="n">
-        <v>155.3190545659415</v>
+        <v>155.3190545659416</v>
       </c>
       <c r="M10" t="n">
-        <v>99.2686266927236</v>
+        <v>151.9300289740654</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>140.3539597673541</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P10" t="n">
-        <v>135.0065633140411</v>
+        <v>26.53509868619514</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1.84741111297626e-12</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-12</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.932676241267473e-12</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>35.84474937714299</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>110.6012953868449</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>85.51783882994258</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>152.135079879057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>140.1506052646699</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>98.48110347033592</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>201.8612110924959</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>130.5635792333305</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>108.1192109348929</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>27.01378864557391</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.8150506800263</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>142.8811884391945</v>
       </c>
       <c r="I16" t="n">
-        <v>90.01436521585282</v>
+        <v>90.01436521585281</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>79.45572552692423</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>186.0960955228356</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>65.76377320000752</v>
+        <v>65.76377320000971</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>65.76377320000999</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>65.76377320000802</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24421,10 +24421,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>65.76377320000938</v>
       </c>
       <c r="W25" t="n">
-        <v>65.76377320000867</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>65.76377320000864</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>65.76377320000898</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>65.76377320000977</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>65.76377320000954</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>65.76377320000888</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>65.76377320000961</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>65.76377320000988</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>65.76377320000961</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25558,7 +25558,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>65.76377320000998</v>
+        <v>65.76377320000954</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25792,10 +25792,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>8.198935687246419</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>65.76377320000954</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>57.56483751276279</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26032,7 +26032,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>8.198935687246291</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>57.56483751276279</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>65.76377320000708</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>862861.7948325113</v>
+        <v>862861.7948325112</v>
       </c>
     </row>
     <row r="6">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>410520.8849321418</v>
+        <v>410520.8849321417</v>
       </c>
       <c r="C2" t="n">
-        <v>410520.8849321418</v>
+        <v>410520.8849321419</v>
       </c>
       <c r="D2" t="n">
-        <v>410520.8849321415</v>
+        <v>410520.8849321416</v>
       </c>
       <c r="E2" t="n">
-        <v>340997.0989709207</v>
+        <v>340997.0989709205</v>
       </c>
       <c r="F2" t="n">
-        <v>367286.6249238953</v>
+        <v>367286.6249238955</v>
       </c>
       <c r="G2" t="n">
-        <v>409731.7196537417</v>
+        <v>409731.7196537415</v>
       </c>
       <c r="H2" t="n">
         <v>409731.7196537416</v>
@@ -26335,19 +26335,19 @@
         <v>409731.7196537416</v>
       </c>
       <c r="J2" t="n">
+        <v>409731.7196537416</v>
+      </c>
+      <c r="K2" t="n">
+        <v>409731.7196537415</v>
+      </c>
+      <c r="L2" t="n">
         <v>409731.7196537417</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>409731.7196537417</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>409731.7196537416</v>
-      </c>
-      <c r="M2" t="n">
-        <v>409731.7196537416</v>
-      </c>
-      <c r="N2" t="n">
-        <v>409731.7196537415</v>
       </c>
       <c r="O2" t="n">
         <v>409731.7196537416</v>
@@ -26369,16 +26369,16 @@
         <v>119.666094892463</v>
       </c>
       <c r="D3" t="n">
-        <v>201623.0616412963</v>
+        <v>201623.0616412964</v>
       </c>
       <c r="E3" t="n">
-        <v>667257.5729881106</v>
+        <v>667257.5729881102</v>
       </c>
       <c r="F3" t="n">
-        <v>133420.3137696926</v>
+        <v>133420.3137696933</v>
       </c>
       <c r="G3" t="n">
-        <v>113436.9318968208</v>
+        <v>113436.9318968201</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,22 +26390,22 @@
         <v>3660.780350525687</v>
       </c>
       <c r="K3" t="n">
-        <v>95.32967503681532</v>
+        <v>95.32967503669828</v>
       </c>
       <c r="L3" t="n">
-        <v>58543.23407391248</v>
+        <v>58543.23407391252</v>
       </c>
       <c r="M3" t="n">
-        <v>168033.949321243</v>
+        <v>168033.9493212429</v>
       </c>
       <c r="N3" t="n">
-        <v>35079.36082776033</v>
+        <v>35079.36082776049</v>
       </c>
       <c r="O3" t="n">
-        <v>24110.26776030923</v>
+        <v>24110.26776030907</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>349184.4550287493</v>
+        <v>349184.4550287492</v>
       </c>
       <c r="C4" t="n">
         <v>349129.5663714769</v>
@@ -26430,22 +26430,22 @@
         <v>11064.41086230826</v>
       </c>
       <c r="G4" t="n">
-        <v>38645.12470987697</v>
+        <v>38645.12470987694</v>
       </c>
       <c r="H4" t="n">
-        <v>38645.12470987697</v>
+        <v>38645.12470987694</v>
       </c>
       <c r="I4" t="n">
-        <v>38645.12470987701</v>
+        <v>38645.124709877</v>
       </c>
       <c r="J4" t="n">
+        <v>38645.124709877</v>
+      </c>
+      <c r="K4" t="n">
         <v>38645.12470987694</v>
       </c>
-      <c r="K4" t="n">
-        <v>38645.124709877</v>
-      </c>
       <c r="L4" t="n">
-        <v>38645.12470987694</v>
+        <v>38645.12470987693</v>
       </c>
       <c r="M4" t="n">
         <v>38645.12470987693</v>
@@ -26454,10 +26454,10 @@
         <v>38645.12470987694</v>
       </c>
       <c r="O4" t="n">
-        <v>38645.12470987693</v>
+        <v>38645.12470987694</v>
       </c>
       <c r="P4" t="n">
-        <v>38645.12470987694</v>
+        <v>38645.12470987705</v>
       </c>
     </row>
     <row r="5">
@@ -26473,28 +26473,28 @@
         <v>41611.55615838598</v>
       </c>
       <c r="D5" t="n">
-        <v>54294.69533421404</v>
+        <v>54294.69533421405</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>85562.21145116803</v>
+        <v>85562.21145116806</v>
       </c>
       <c r="G5" t="n">
-        <v>95791.17608727686</v>
+        <v>95791.17608727684</v>
       </c>
       <c r="H5" t="n">
         <v>95791.17608727684</v>
       </c>
       <c r="I5" t="n">
+        <v>95791.17608727685</v>
+      </c>
+      <c r="J5" t="n">
+        <v>95791.17608727685</v>
+      </c>
+      <c r="K5" t="n">
         <v>95791.17608727684</v>
-      </c>
-      <c r="J5" t="n">
-        <v>95791.17608727684</v>
-      </c>
-      <c r="K5" t="n">
-        <v>95791.17608727685</v>
       </c>
       <c r="L5" t="n">
         <v>95791.17608727684</v>
@@ -26522,46 +26522,46 @@
         <v>-299254.1325238</v>
       </c>
       <c r="C6" t="n">
-        <v>19660.09630738643</v>
+        <v>19660.09630738648</v>
       </c>
       <c r="D6" t="n">
         <v>-132826.9519842167</v>
       </c>
       <c r="E6" t="n">
-        <v>-411557.1056106993</v>
+        <v>-411904.7245405053</v>
       </c>
       <c r="F6" t="n">
-        <v>137239.6888407265</v>
+        <v>137023.5175406846</v>
       </c>
       <c r="G6" t="n">
-        <v>161858.4869597671</v>
+        <v>161854.5411333756</v>
       </c>
       <c r="H6" t="n">
-        <v>275295.4188565878</v>
+        <v>275291.4730301958</v>
       </c>
       <c r="I6" t="n">
-        <v>275295.418856588</v>
+        <v>275291.4730301957</v>
       </c>
       <c r="J6" t="n">
-        <v>271634.6385060622</v>
+        <v>271630.6926796701</v>
       </c>
       <c r="K6" t="n">
-        <v>275200.089181551</v>
+        <v>275196.143355159</v>
       </c>
       <c r="L6" t="n">
-        <v>216752.1847826754</v>
+        <v>216748.2389562834</v>
       </c>
       <c r="M6" t="n">
-        <v>107261.4695353448</v>
+        <v>107257.523708953</v>
       </c>
       <c r="N6" t="n">
-        <v>240216.0580288274</v>
+        <v>240212.1122024354</v>
       </c>
       <c r="O6" t="n">
-        <v>251185.1510962786</v>
+        <v>251181.2052698867</v>
       </c>
       <c r="P6" t="n">
-        <v>275295.4188565878</v>
+        <v>275291.4730301956</v>
       </c>
     </row>
   </sheetData>
@@ -26698,13 +26698,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="H2" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="I2" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="J2" t="n">
         <v>28.01593931322975</v>
@@ -26725,7 +26725,7 @@
         <v>28.01593931322975</v>
       </c>
       <c r="P2" t="n">
-        <v>28.01593931322975</v>
+        <v>28.01593931322988</v>
       </c>
     </row>
     <row r="3">
@@ -26741,13 +26741,13 @@
         <v>326.1814319885848</v>
       </c>
       <c r="D3" t="n">
-        <v>509.8291662011503</v>
+        <v>509.8291662011504</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1206.651358039822</v>
+        <v>1206.651358039823</v>
       </c>
       <c r="G3" t="n">
         <v>1288.407371274852</v>
@@ -26793,13 +26793,13 @@
         <v>14.36185758280979</v>
       </c>
       <c r="D4" t="n">
-        <v>157.1187419577133</v>
+        <v>157.1187419577134</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>974.62519483388</v>
+        <v>974.6251948338804</v>
       </c>
       <c r="G4" t="n">
         <v>1074.812884726335</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.27897692436818e-13</v>
       </c>
     </row>
     <row r="3">
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>183.6477342125655</v>
+        <v>183.6477342125656</v>
       </c>
       <c r="E3" t="n">
-        <v>579.9475343921481</v>
+        <v>579.9475343921476</v>
       </c>
       <c r="F3" t="n">
-        <v>116.874657446524</v>
+        <v>116.8746574465247</v>
       </c>
       <c r="G3" t="n">
-        <v>81.75601323502951</v>
+        <v>81.75601323502883</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27015,16 +27015,16 @@
         <v>0.3704022063223125</v>
       </c>
       <c r="D4" t="n">
-        <v>142.7568843749035</v>
+        <v>142.7568843749036</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2827134445796</v>
+        <v>674.2827134445793</v>
       </c>
       <c r="F4" t="n">
-        <v>143.2237394315871</v>
+        <v>143.2237394315878</v>
       </c>
       <c r="G4" t="n">
-        <v>100.1876898924552</v>
+        <v>100.1876898924545</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,19 +27036,19 @@
         <v>13.99145537648747</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3704022063225239</v>
+        <v>0.3704022063220691</v>
       </c>
       <c r="L4" t="n">
-        <v>142.7568843749033</v>
+        <v>142.7568843749036</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2827134445796</v>
+        <v>674.2827134445793</v>
       </c>
       <c r="N4" t="n">
-        <v>143.2237394315871</v>
+        <v>143.2237394315878</v>
       </c>
       <c r="O4" t="n">
-        <v>100.1876898924552</v>
+        <v>100.1876898924545</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27261,16 +27261,16 @@
         <v>0.3704022063223125</v>
       </c>
       <c r="L4" t="n">
-        <v>142.7568843749035</v>
+        <v>142.7568843749036</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2827134445796</v>
+        <v>674.2827134445793</v>
       </c>
       <c r="N4" t="n">
-        <v>143.2237394315871</v>
+        <v>143.2237394315878</v>
       </c>
       <c r="O4" t="n">
-        <v>100.1876898924552</v>
+        <v>100.1876898924545</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>326.0456339133427</v>
+        <v>313.7219600177325</v>
       </c>
       <c r="I2" t="n">
-        <v>147.599011024585</v>
+        <v>159.9226849201952</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>67.4992912993288</v>
       </c>
       <c r="S2" t="n">
-        <v>165.1477724753262</v>
+        <v>179.1392278518137</v>
       </c>
       <c r="T2" t="n">
         <v>217.3557120022016</v>
@@ -27439,7 +27439,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>335.2495133409255</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27455,25 +27455,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>152.5417282733799</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>160.3848250927056</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>133.4536101881513</v>
       </c>
       <c r="E3" t="n">
         <v>143.6536250789135</v>
       </c>
       <c r="F3" t="n">
-        <v>131.0777570168964</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.6419193661031</v>
       </c>
       <c r="H3" t="n">
-        <v>91.46803118794423</v>
+        <v>105.4594865644317</v>
       </c>
       <c r="I3" t="n">
         <v>65.24074378433592</v>
@@ -27509,7 +27509,7 @@
         <v>158.6512997408977</v>
       </c>
       <c r="T3" t="n">
-        <v>185.0131233275368</v>
+        <v>197.336797223147</v>
       </c>
       <c r="U3" t="n">
         <v>225.8952243311651</v>
@@ -27549,13 +27549,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>155.0791094379511</v>
+        <v>153.4113279570738</v>
       </c>
       <c r="H4" t="n">
-        <v>156.9975751224423</v>
+        <v>143.0061197459548</v>
       </c>
       <c r="I4" t="n">
-        <v>137.761816287615</v>
+        <v>125.4381423920049</v>
       </c>
       <c r="J4" t="n">
         <v>37.78226577993573</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>22.9171916449306</v>
+        <v>36.90864702141808</v>
       </c>
       <c r="R4" t="n">
-        <v>136.8545038266568</v>
+        <v>150.8459592031442</v>
       </c>
       <c r="S4" t="n">
         <v>213.7659454939867</v>
@@ -27622,10 +27622,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>367.568512489452</v>
+        <v>369.2804459133229</v>
       </c>
       <c r="F5" t="n">
-        <v>394.2261215827726</v>
+        <v>392.5141881589017</v>
       </c>
       <c r="G5" t="n">
         <v>399.6295977936777</v>
@@ -27692,19 +27692,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>153.8832594909285</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>158.3466414055059</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>133.083207981829</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>130.7073548105741</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.6419193661031</v>
@@ -27713,7 +27713,7 @@
         <v>105.4594865644317</v>
       </c>
       <c r="I6" t="n">
-        <v>65.24074378433592</v>
+        <v>50.87888620152613</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>56.59722706556381</v>
+        <v>43.94730290662495</v>
       </c>
       <c r="S6" t="n">
         <v>158.6512997408977</v>
@@ -27755,10 +27755,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>237.3331255781098</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>191.4111276206677</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>152.884963515818</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>131.0591904401215</v>
       </c>
       <c r="G7" t="n">
-        <v>154.7528591746224</v>
+        <v>167.4027833335613</v>
       </c>
       <c r="H7" t="n">
         <v>156.9975751224423</v>
       </c>
       <c r="I7" t="n">
-        <v>137.761816287615</v>
+        <v>125.1118921286762</v>
       </c>
       <c r="J7" t="n">
-        <v>37.41186357361342</v>
+        <v>51.77372115642321</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>150.8459592031442</v>
       </c>
       <c r="S7" t="n">
-        <v>213.7659454939867</v>
+        <v>199.4040879111769</v>
       </c>
       <c r="T7" t="n">
         <v>225.4323882309924</v>
@@ -27856,19 +27856,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>197.5642996629696</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>224.8116281145484</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>256.134431070181</v>
+        <v>277.2035062911026</v>
       </c>
       <c r="H8" t="n">
-        <v>182.4350330740208</v>
+        <v>318.4846998108122</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>5.19687687553219</v>
+        <v>162.3156188332455</v>
       </c>
       <c r="T8" t="n">
         <v>214.1238810212347</v>
@@ -27932,25 +27932,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>15.58975703060244</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5263384976876466</v>
+        <v>0.5263384976875898</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>136.2469034849667</v>
       </c>
       <c r="H9" t="n">
-        <v>101.6444647650348</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>51.64041629783932</v>
+        <v>25.24307910833012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>32.07159191921401</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>151.3140530013673</v>
@@ -27995,10 +27995,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>48.65424324576418</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>67.29250786095048</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28026,7 +28026,7 @@
         <v>167.07161528826</v>
       </c>
       <c r="H10" t="n">
-        <v>154.0531901378539</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>127.8026899798254</v>
@@ -28062,7 +28062,7 @@
         <v>207.9945896499623</v>
       </c>
       <c r="T10" t="n">
-        <v>103.9771408339173</v>
+        <v>224.0173974919776</v>
       </c>
       <c r="U10" t="n">
         <v>286.2688822253891</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>68.59091343132386</v>
+        <v>111.1071158506182</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>61.46591139438144</v>
       </c>
     </row>
     <row r="11">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="C17" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="D17" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="E17" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="F17" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="G17" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="H17" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="I17" t="n">
-        <v>10.79217024950648</v>
+        <v>10.79217024950651</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="T17" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="U17" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="V17" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="W17" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="X17" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="Y17" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="C19" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="D19" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="E19" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="F19" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="G19" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="H19" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="I19" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="J19" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="K19" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="L19" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="M19" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="N19" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="O19" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="P19" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="Q19" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="R19" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="S19" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="T19" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="U19" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="V19" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="W19" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="X19" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="Y19" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="C20" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="D20" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="E20" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="F20" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="G20" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="H20" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="I20" t="n">
-        <v>10.79217024950648</v>
+        <v>10.79217024950651</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="T20" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="U20" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="V20" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="W20" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="X20" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="Y20" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="C22" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="D22" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="E22" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="F22" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="G22" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="H22" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="I22" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="J22" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="K22" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="L22" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="M22" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="N22" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="O22" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="P22" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="Q22" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="R22" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="S22" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="T22" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="U22" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="V22" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="W22" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="X22" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="Y22" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="C23" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="D23" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="E23" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="F23" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="G23" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="H23" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="I23" t="n">
         <v>10.79217024950651</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="T23" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="U23" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="V23" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="W23" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="X23" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="Y23" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="C25" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="D25" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="E25" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="F25" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="G25" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="H25" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="I25" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="J25" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="K25" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="L25" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="M25" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="N25" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="O25" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="P25" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="Q25" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="R25" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="S25" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="T25" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="U25" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="V25" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="W25" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="X25" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
       <c r="Y25" t="n">
-        <v>28.0159393132298</v>
+        <v>28.01593931322975</v>
       </c>
     </row>
     <row r="26">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>28.01593931322975</v>
+        <v>28.01593931322988</v>
       </c>
       <c r="C44" t="n">
-        <v>28.01593931322975</v>
+        <v>28.01593931322988</v>
       </c>
       <c r="D44" t="n">
-        <v>28.01593931322975</v>
+        <v>28.01593931322988</v>
       </c>
       <c r="E44" t="n">
-        <v>28.01593931322975</v>
+        <v>28.01593931322988</v>
       </c>
       <c r="F44" t="n">
-        <v>28.01593931322975</v>
+        <v>28.01593931322988</v>
       </c>
       <c r="G44" t="n">
-        <v>28.01593931322975</v>
+        <v>28.01593931322988</v>
       </c>
       <c r="H44" t="n">
-        <v>28.01593931322975</v>
+        <v>28.01593931322988</v>
       </c>
       <c r="I44" t="n">
         <v>10.79217024950651</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>28.01593931322975</v>
+        <v>28.01593931322988</v>
       </c>
       <c r="T44" t="n">
-        <v>28.01593931322975</v>
+        <v>28.01593931322988</v>
       </c>
       <c r="U44" t="n">
-        <v>28.01593931322975</v>
+        <v>28.01593931322988</v>
       </c>
       <c r="V44" t="n">
-        <v>28.01593931322975</v>
+        <v>28.01593931322988</v>
       </c>
       <c r="W44" t="n">
-        <v>28.01593931322975</v>
+        <v>28.01593931322988</v>
       </c>
       <c r="X44" t="n">
-        <v>28.01593931322975</v>
+        <v>28.01593931322988</v>
       </c>
       <c r="Y44" t="n">
-        <v>28.01593931322975</v>
+        <v>28.01593931322988</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.01593931322975</v>
+        <v>28.01593931322988</v>
       </c>
       <c r="C46" t="n">
-        <v>28.01593931322975</v>
+        <v>28.01593931322988</v>
       </c>
       <c r="D46" t="n">
-        <v>28.01593931322975</v>
+        <v>28.01593931322988</v>
       </c>
       <c r="E46" t="n">
-        <v>28.01593931322975</v>
+        <v>28.01593931322988</v>
       </c>
       <c r="F46" t="n">
-        <v>28.01593931322975</v>
+        <v>28.01593931322988</v>
       </c>
       <c r="G46" t="n">
-        <v>28.01593931322975</v>
+        <v>28.01593931322988</v>
       </c>
       <c r="H46" t="n">
-        <v>28.01593931322975</v>
+        <v>28.01593931322988</v>
       </c>
       <c r="I46" t="n">
-        <v>28.01593931322975</v>
+        <v>28.01593931322988</v>
       </c>
       <c r="J46" t="n">
-        <v>28.01593931322975</v>
+        <v>28.01593931322988</v>
       </c>
       <c r="K46" t="n">
-        <v>28.01593931322975</v>
+        <v>28.01593931322988</v>
       </c>
       <c r="L46" t="n">
-        <v>28.01593931322975</v>
+        <v>28.01593931322988</v>
       </c>
       <c r="M46" t="n">
-        <v>28.01593931322975</v>
+        <v>28.01593931322988</v>
       </c>
       <c r="N46" t="n">
-        <v>28.01593931322975</v>
+        <v>28.01593931322988</v>
       </c>
       <c r="O46" t="n">
-        <v>28.01593931322975</v>
+        <v>28.01593931322988</v>
       </c>
       <c r="P46" t="n">
-        <v>28.01593931322975</v>
+        <v>28.01593931322988</v>
       </c>
       <c r="Q46" t="n">
-        <v>28.01593931322975</v>
+        <v>28.01593931322988</v>
       </c>
       <c r="R46" t="n">
-        <v>28.01593931322975</v>
+        <v>28.01593931322988</v>
       </c>
       <c r="S46" t="n">
-        <v>28.01593931322975</v>
+        <v>28.01593931322988</v>
       </c>
       <c r="T46" t="n">
-        <v>28.01593931322975</v>
+        <v>28.01593931322988</v>
       </c>
       <c r="U46" t="n">
-        <v>28.01593931322975</v>
+        <v>28.01593931322988</v>
       </c>
       <c r="V46" t="n">
-        <v>28.01593931322975</v>
+        <v>28.01593931322988</v>
       </c>
       <c r="W46" t="n">
-        <v>28.01593931322975</v>
+        <v>28.01593931322988</v>
       </c>
       <c r="X46" t="n">
-        <v>28.01593931322975</v>
+        <v>28.01593931322988</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.01593931322975</v>
+        <v>28.01593931322988</v>
       </c>
     </row>
   </sheetData>
@@ -31133,13 +31133,13 @@
         <v>113.2926583162616</v>
       </c>
       <c r="L3" t="n">
-        <v>152.335960288631</v>
+        <v>151.9805238280187</v>
       </c>
       <c r="M3" t="n">
         <v>156.1254892985058</v>
       </c>
       <c r="N3" t="n">
-        <v>144.9777309992085</v>
+        <v>145.3331674598208</v>
       </c>
       <c r="O3" t="n">
         <v>156.5876998209319</v>
@@ -31513,16 +31513,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.049564487240803</v>
+        <v>2.049564487240804</v>
       </c>
       <c r="H8" t="n">
-        <v>20.99010230495488</v>
+        <v>20.99010230495489</v>
       </c>
       <c r="I8" t="n">
-        <v>79.01583489435116</v>
+        <v>79.01583489435117</v>
       </c>
       <c r="J8" t="n">
-        <v>173.9542238989543</v>
+        <v>173.9542238989544</v>
       </c>
       <c r="K8" t="n">
         <v>260.7122886438576</v>
@@ -31531,28 +31531,28 @@
         <v>323.4366478202534</v>
       </c>
       <c r="M8" t="n">
-        <v>359.885590270222</v>
+        <v>359.8855902702221</v>
       </c>
       <c r="N8" t="n">
         <v>365.708915369595</v>
       </c>
       <c r="O8" t="n">
-        <v>345.3285584995942</v>
+        <v>345.3285584995943</v>
       </c>
       <c r="P8" t="n">
-        <v>294.7299352208368</v>
+        <v>294.7299352208369</v>
       </c>
       <c r="Q8" t="n">
         <v>221.3299070215255</v>
       </c>
       <c r="R8" t="n">
-        <v>128.7459552216402</v>
+        <v>128.7459552216403</v>
       </c>
       <c r="S8" t="n">
-        <v>46.70445075299985</v>
+        <v>46.70445075299987</v>
       </c>
       <c r="T8" t="n">
-        <v>8.971968542896622</v>
+        <v>8.971968542896624</v>
       </c>
       <c r="U8" t="n">
         <v>0.1639651589792643</v>
@@ -31598,43 +31598,43 @@
         <v>10.59097947146163</v>
       </c>
       <c r="I9" t="n">
-        <v>37.75621655357575</v>
+        <v>37.75621655357576</v>
       </c>
       <c r="J9" t="n">
-        <v>103.6059440484809</v>
+        <v>103.605944048481</v>
       </c>
       <c r="K9" t="n">
-        <v>177.0790604908278</v>
+        <v>177.0790604908279</v>
       </c>
       <c r="L9" t="n">
-        <v>238.1046497432825</v>
+        <v>238.1046497432826</v>
       </c>
       <c r="M9" t="n">
-        <v>277.8568955796268</v>
+        <v>277.8568955796269</v>
       </c>
       <c r="N9" t="n">
-        <v>285.2109408166227</v>
+        <v>285.2109408166228</v>
       </c>
       <c r="O9" t="n">
-        <v>260.9122903671113</v>
+        <v>260.9122903671114</v>
       </c>
       <c r="P9" t="n">
-        <v>209.4051154534498</v>
+        <v>209.4051154534499</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
-        <v>68.08624223342912</v>
+        <v>68.08624223342913</v>
       </c>
       <c r="S9" t="n">
-        <v>20.36911810247047</v>
+        <v>20.36911810247048</v>
       </c>
       <c r="T9" t="n">
-        <v>4.420122676781669</v>
+        <v>4.42012267678167</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07214563672657789</v>
+        <v>0.07214563672657791</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,22 +31671,22 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9193640701987954</v>
+        <v>0.9193640701987956</v>
       </c>
       <c r="H10" t="n">
-        <v>8.17398236958566</v>
+        <v>8.173982369585662</v>
       </c>
       <c r="I10" t="n">
-        <v>27.64778494743287</v>
+        <v>27.64778494743288</v>
       </c>
       <c r="J10" t="n">
-        <v>64.99903976305484</v>
+        <v>64.99903976305485</v>
       </c>
       <c r="K10" t="n">
         <v>106.8133892467328</v>
       </c>
       <c r="L10" t="n">
-        <v>136.68436367301</v>
+        <v>136.6843636730101</v>
       </c>
       <c r="M10" t="n">
         <v>144.114496931253</v>
@@ -31701,19 +31701,19 @@
         <v>111.1929053629525</v>
       </c>
       <c r="Q10" t="n">
-        <v>76.98420409637369</v>
+        <v>76.9842040963737</v>
       </c>
       <c r="R10" t="n">
-        <v>41.33795173821128</v>
+        <v>41.3379517382113</v>
       </c>
       <c r="S10" t="n">
-        <v>16.02200838700991</v>
+        <v>16.02200838700992</v>
       </c>
       <c r="T10" t="n">
-        <v>3.928191936303943</v>
+        <v>3.928191936303944</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05014713110175253</v>
+        <v>0.05014713110175255</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.850859730813352</v>
+        <v>4.850859730813355</v>
       </c>
       <c r="H14" t="n">
-        <v>49.67886721819226</v>
+        <v>49.67886721819227</v>
       </c>
       <c r="I14" t="n">
-        <v>187.0127697721819</v>
+        <v>187.012769772182</v>
       </c>
       <c r="J14" t="n">
-        <v>411.7106560781201</v>
+        <v>411.7106560781203</v>
       </c>
       <c r="K14" t="n">
-        <v>617.0475484834494</v>
+        <v>617.0475484834496</v>
       </c>
       <c r="L14" t="n">
-        <v>765.5020469703287</v>
+        <v>765.502046970329</v>
       </c>
       <c r="M14" t="n">
-        <v>851.7685237081806</v>
+        <v>851.768523708181</v>
       </c>
       <c r="N14" t="n">
-        <v>865.5510289183542</v>
+        <v>865.5510289183545</v>
       </c>
       <c r="O14" t="n">
-        <v>817.3152924700788</v>
+        <v>817.3152924700792</v>
       </c>
       <c r="P14" t="n">
-        <v>697.5596928656241</v>
+        <v>697.5596928656244</v>
       </c>
       <c r="Q14" t="n">
-        <v>523.8382787558708</v>
+        <v>523.838278755871</v>
       </c>
       <c r="R14" t="n">
-        <v>304.7128175657045</v>
+        <v>304.7128175657047</v>
       </c>
       <c r="S14" t="n">
         <v>110.5389661159094</v>
       </c>
       <c r="T14" t="n">
-        <v>21.23463847163546</v>
+        <v>21.23463847163547</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3880687784650681</v>
+        <v>0.3880687784650683</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.595438770123391</v>
+        <v>2.595438770123392</v>
       </c>
       <c r="H15" t="n">
-        <v>25.06647443777065</v>
+        <v>25.06647443777066</v>
       </c>
       <c r="I15" t="n">
-        <v>89.36050151521327</v>
+        <v>89.3605015152133</v>
       </c>
       <c r="J15" t="n">
         <v>245.2120462597719</v>
       </c>
       <c r="K15" t="n">
-        <v>419.1064438580391</v>
+        <v>419.1064438580392</v>
       </c>
       <c r="L15" t="n">
-        <v>158.1000291846613</v>
+        <v>563.5403347147305</v>
       </c>
       <c r="M15" t="n">
-        <v>657.624990131703</v>
+        <v>252.1846846016328</v>
       </c>
       <c r="N15" t="n">
-        <v>675.0303667962587</v>
+        <v>675.030366796259</v>
       </c>
       <c r="O15" t="n">
-        <v>617.5209077319456</v>
+        <v>617.5209077319458</v>
       </c>
       <c r="P15" t="n">
-        <v>495.6149700597904</v>
+        <v>495.6149700597907</v>
       </c>
       <c r="Q15" t="n">
-        <v>331.3054823055754</v>
+        <v>331.3054823055755</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>48.20913680470419</v>
+        <v>48.20913680470421</v>
       </c>
       <c r="T15" t="n">
-        <v>10.4614396041377</v>
+        <v>10.46143960413771</v>
       </c>
       <c r="U15" t="n">
         <v>0.1707525506660127</v>
@@ -32145,46 +32145,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.175928678432466</v>
+        <v>2.175928678432467</v>
       </c>
       <c r="H16" t="n">
-        <v>19.34598406824503</v>
+        <v>19.34598406824504</v>
       </c>
       <c r="I16" t="n">
-        <v>65.43610971140546</v>
+        <v>65.43610971140548</v>
       </c>
       <c r="J16" t="n">
         <v>153.8381575651754</v>
       </c>
       <c r="K16" t="n">
-        <v>252.8033500942446</v>
+        <v>252.8033500942448</v>
       </c>
       <c r="L16" t="n">
-        <v>323.501250973496</v>
+        <v>323.5012509734961</v>
       </c>
       <c r="M16" t="n">
-        <v>341.086710929191</v>
+        <v>341.0867109291912</v>
       </c>
       <c r="N16" t="n">
-        <v>332.9764313095794</v>
+        <v>332.9764313095795</v>
       </c>
       <c r="O16" t="n">
-        <v>307.5576281115273</v>
+        <v>307.5576281115274</v>
       </c>
       <c r="P16" t="n">
-        <v>263.1686830715047</v>
+        <v>263.1686830715048</v>
       </c>
       <c r="Q16" t="n">
         <v>182.2043550640132</v>
       </c>
       <c r="R16" t="n">
-        <v>97.83766585024523</v>
+        <v>97.83766585024526</v>
       </c>
       <c r="S16" t="n">
-        <v>37.92050251413669</v>
+        <v>37.92050251413671</v>
       </c>
       <c r="T16" t="n">
-        <v>9.297149807847807</v>
+        <v>9.297149807847811</v>
       </c>
       <c r="U16" t="n">
         <v>0.1186870188235892</v>
@@ -32224,46 +32224,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.179527120702918</v>
+        <v>5.179527120702917</v>
       </c>
       <c r="H17" t="n">
-        <v>53.04483212489878</v>
+        <v>53.04483212489876</v>
       </c>
       <c r="I17" t="n">
         <v>199.6837193208994</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6058899607597</v>
+        <v>439.6058899607596</v>
       </c>
       <c r="K17" t="n">
-        <v>658.8552729801144</v>
+        <v>658.8552729801143</v>
       </c>
       <c r="L17" t="n">
-        <v>817.3682261003264</v>
+        <v>817.3682261003263</v>
       </c>
       <c r="M17" t="n">
-        <v>909.4796415331269</v>
+        <v>909.4796415331267</v>
       </c>
       <c r="N17" t="n">
-        <v>924.1959729648241</v>
+        <v>924.195972964824</v>
       </c>
       <c r="O17" t="n">
-        <v>872.6920501583345</v>
+        <v>872.6920501583343</v>
       </c>
       <c r="P17" t="n">
-        <v>744.8224743659811</v>
+        <v>744.822474365981</v>
       </c>
       <c r="Q17" t="n">
-        <v>559.3306593558076</v>
+        <v>559.3306593558075</v>
       </c>
       <c r="R17" t="n">
         <v>325.3584704958549</v>
       </c>
       <c r="S17" t="n">
-        <v>118.0284742630179</v>
+        <v>118.0284742630178</v>
       </c>
       <c r="T17" t="n">
-        <v>22.67337997087704</v>
+        <v>22.67337997087703</v>
       </c>
       <c r="U17" t="n">
         <v>0.4143621696562333</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.771291326893078</v>
+        <v>2.771291326893077</v>
       </c>
       <c r="H18" t="n">
         <v>26.76483992025683</v>
       </c>
       <c r="I18" t="n">
-        <v>95.41507419346782</v>
+        <v>95.4150741934678</v>
       </c>
       <c r="J18" t="n">
-        <v>261.8262564587886</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>447.5027753606248</v>
+        <v>447.5027753606246</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>601.7227067449202</v>
       </c>
       <c r="M18" t="n">
-        <v>702.1820173447942</v>
+        <v>148.219247413385</v>
       </c>
       <c r="N18" t="n">
-        <v>720.7666859361079</v>
+        <v>720.7666859361078</v>
       </c>
       <c r="O18" t="n">
-        <v>659.3607044296876</v>
+        <v>659.3607044296875</v>
       </c>
       <c r="P18" t="n">
-        <v>303.4120228128778</v>
+        <v>529.1950955713631</v>
       </c>
       <c r="Q18" t="n">
-        <v>353.7529069205971</v>
+        <v>353.752906920597</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>51.47552091838674</v>
+        <v>51.47552091838673</v>
       </c>
       <c r="T18" t="n">
         <v>11.17024881322253</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1823217978219131</v>
+        <v>0.182321797821913</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.323357554757929</v>
       </c>
       <c r="H19" t="n">
-        <v>20.65676080502961</v>
+        <v>20.6567608050296</v>
       </c>
       <c r="I19" t="n">
-        <v>69.86969810126575</v>
+        <v>69.86969810126574</v>
       </c>
       <c r="J19" t="n">
         <v>164.2613791213856</v>
       </c>
       <c r="K19" t="n">
-        <v>269.9319049982394</v>
+        <v>269.9319049982393</v>
       </c>
       <c r="L19" t="n">
-        <v>345.4199040955562</v>
+        <v>345.4199040955561</v>
       </c>
       <c r="M19" t="n">
-        <v>364.1968574244634</v>
+        <v>364.1968574244633</v>
       </c>
       <c r="N19" t="n">
-        <v>355.5370701749114</v>
+        <v>355.5370701749113</v>
       </c>
       <c r="O19" t="n">
         <v>328.3960296488754</v>
@@ -32415,13 +32415,13 @@
         <v>194.5495130625026</v>
       </c>
       <c r="R19" t="n">
-        <v>104.4666042348429</v>
+        <v>104.4666042348428</v>
       </c>
       <c r="S19" t="n">
-        <v>40.4897857497359</v>
+        <v>40.48978574973589</v>
       </c>
       <c r="T19" t="n">
-        <v>9.92707318851115</v>
+        <v>9.927073188511148</v>
       </c>
       <c r="U19" t="n">
         <v>0.1267285938958872</v>
@@ -32461,46 +32461,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.179527120702918</v>
+        <v>5.179527120702917</v>
       </c>
       <c r="H20" t="n">
-        <v>53.04483212489878</v>
+        <v>53.04483212489876</v>
       </c>
       <c r="I20" t="n">
         <v>199.6837193208994</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6058899607597</v>
+        <v>439.6058899607596</v>
       </c>
       <c r="K20" t="n">
-        <v>658.8552729801144</v>
+        <v>658.8552729801143</v>
       </c>
       <c r="L20" t="n">
-        <v>817.3682261003264</v>
+        <v>817.3682261003263</v>
       </c>
       <c r="M20" t="n">
-        <v>909.4796415331269</v>
+        <v>909.4796415331267</v>
       </c>
       <c r="N20" t="n">
-        <v>924.1959729648241</v>
+        <v>924.195972964824</v>
       </c>
       <c r="O20" t="n">
-        <v>872.6920501583345</v>
+        <v>872.6920501583343</v>
       </c>
       <c r="P20" t="n">
-        <v>744.8224743659811</v>
+        <v>744.822474365981</v>
       </c>
       <c r="Q20" t="n">
-        <v>559.3306593558076</v>
+        <v>559.3306593558075</v>
       </c>
       <c r="R20" t="n">
         <v>325.3584704958549</v>
       </c>
       <c r="S20" t="n">
-        <v>118.0284742630179</v>
+        <v>118.0284742630178</v>
       </c>
       <c r="T20" t="n">
-        <v>22.67337997087704</v>
+        <v>22.67337997087703</v>
       </c>
       <c r="U20" t="n">
         <v>0.4143621696562333</v>
@@ -32540,31 +32540,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.771291326893078</v>
+        <v>2.771291326893077</v>
       </c>
       <c r="H21" t="n">
         <v>26.76483992025683</v>
       </c>
       <c r="I21" t="n">
-        <v>95.41507419346782</v>
+        <v>95.4150741934678</v>
       </c>
       <c r="J21" t="n">
-        <v>181.8666777268654</v>
+        <v>261.8262564587885</v>
       </c>
       <c r="K21" t="n">
-        <v>447.5027753606248</v>
+        <v>447.5027753606246</v>
       </c>
       <c r="L21" t="n">
-        <v>601.7227067449203</v>
+        <v>601.7227067449202</v>
       </c>
       <c r="M21" t="n">
-        <v>702.1820173447942</v>
+        <v>702.1820173447941</v>
       </c>
       <c r="N21" t="n">
-        <v>720.7666859361079</v>
+        <v>640.8071072041855</v>
       </c>
       <c r="O21" t="n">
-        <v>659.3607044296876</v>
+        <v>659.3607044296875</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>51.47552091838674</v>
+        <v>51.47552091838673</v>
       </c>
       <c r="T21" t="n">
         <v>11.17024881322253</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1823217978219131</v>
+        <v>0.182321797821913</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.323357554757929</v>
       </c>
       <c r="H22" t="n">
-        <v>20.65676080502961</v>
+        <v>20.6567608050296</v>
       </c>
       <c r="I22" t="n">
-        <v>69.86969810126575</v>
+        <v>69.86969810126574</v>
       </c>
       <c r="J22" t="n">
         <v>164.2613791213856</v>
       </c>
       <c r="K22" t="n">
-        <v>269.9319049982394</v>
+        <v>269.9319049982393</v>
       </c>
       <c r="L22" t="n">
-        <v>345.4199040955562</v>
+        <v>345.4199040955561</v>
       </c>
       <c r="M22" t="n">
-        <v>364.1968574244634</v>
+        <v>364.1968574244633</v>
       </c>
       <c r="N22" t="n">
-        <v>355.5370701749114</v>
+        <v>355.5370701749113</v>
       </c>
       <c r="O22" t="n">
         <v>328.3960296488754</v>
@@ -32652,13 +32652,13 @@
         <v>194.5495130625026</v>
       </c>
       <c r="R22" t="n">
-        <v>104.4666042348429</v>
+        <v>104.4666042348428</v>
       </c>
       <c r="S22" t="n">
-        <v>40.4897857497359</v>
+        <v>40.48978574973589</v>
       </c>
       <c r="T22" t="n">
-        <v>9.92707318851115</v>
+        <v>9.927073188511148</v>
       </c>
       <c r="U22" t="n">
         <v>0.1267285938958872</v>
@@ -32792,22 +32792,22 @@
         <v>447.5027753606246</v>
       </c>
       <c r="L24" t="n">
-        <v>601.7227067449202</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>702.1820173447941</v>
+        <v>476.3989445863091</v>
       </c>
       <c r="N24" t="n">
         <v>720.7666859361078</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>659.3607044296875</v>
       </c>
       <c r="P24" t="n">
         <v>529.1950955713631</v>
       </c>
       <c r="Q24" t="n">
-        <v>181.5659671823094</v>
+        <v>353.752906920597</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33023,10 +33023,10 @@
         <v>95.4150741934678</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>261.8262564587885</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>447.5027753606246</v>
       </c>
       <c r="L27" t="n">
         <v>601.7227067449202</v>
@@ -33038,13 +33038,13 @@
         <v>720.7666859361078</v>
       </c>
       <c r="O27" t="n">
-        <v>659.3607044296875</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>498.6647948607952</v>
+        <v>529.1950955713631</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>181.5659671823094</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33260,28 +33260,28 @@
         <v>95.4150741934678</v>
       </c>
       <c r="J30" t="n">
-        <v>261.8262564587885</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>447.5027753606246</v>
       </c>
       <c r="L30" t="n">
-        <v>601.7227067449202</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>702.1820173447941</v>
       </c>
       <c r="N30" t="n">
-        <v>640.8071072041855</v>
+        <v>629.9722429697447</v>
       </c>
       <c r="O30" t="n">
         <v>659.3607044296875</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>529.1950955713631</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>353.752906920597</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33497,13 +33497,13 @@
         <v>95.4150741934678</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>261.8262564587885</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>447.5027753606246</v>
       </c>
       <c r="L33" t="n">
-        <v>571.1924060343521</v>
+        <v>601.7227067449202</v>
       </c>
       <c r="M33" t="n">
         <v>702.1820173447941</v>
@@ -33512,10 +33512,10 @@
         <v>720.7666859361078</v>
       </c>
       <c r="O33" t="n">
-        <v>659.3607044296875</v>
+        <v>579.4011256977651</v>
       </c>
       <c r="P33" t="n">
-        <v>529.1950955713631</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33734,13 +33734,13 @@
         <v>95.4150741934678</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>261.8262564587885</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>447.5027753606246</v>
       </c>
       <c r="L36" t="n">
-        <v>331.0376191659407</v>
+        <v>601.7227067449202</v>
       </c>
       <c r="M36" t="n">
         <v>702.1820173447941</v>
@@ -33749,16 +33749,16 @@
         <v>720.7666859361078</v>
       </c>
       <c r="O36" t="n">
-        <v>659.3607044296875</v>
+        <v>579.4011256977651</v>
       </c>
       <c r="P36" t="n">
-        <v>529.1950955713631</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>353.752906920597</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>172.0631579978001</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>51.47552091838673</v>
@@ -33983,19 +33983,19 @@
         <v>702.1820173447941</v>
       </c>
       <c r="N39" t="n">
-        <v>400.6523203357741</v>
+        <v>720.7666859361078</v>
       </c>
       <c r="O39" t="n">
-        <v>659.3607044296875</v>
+        <v>579.4011256977651</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>353.752906920597</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>172.0631579978001</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>51.47552091838673</v>
@@ -34208,28 +34208,28 @@
         <v>95.4150741934678</v>
       </c>
       <c r="J42" t="n">
-        <v>261.8262564587885</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>447.5027753606246</v>
       </c>
       <c r="L42" t="n">
-        <v>601.7227067449202</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>702.1820173447941</v>
+        <v>611.3875743784309</v>
       </c>
       <c r="N42" t="n">
         <v>720.7666859361078</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>659.3607044296875</v>
       </c>
       <c r="P42" t="n">
         <v>529.1950955713631</v>
       </c>
       <c r="Q42" t="n">
-        <v>181.5659671823094</v>
+        <v>353.752906920597</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34454,19 +34454,19 @@
         <v>601.7227067449202</v>
       </c>
       <c r="M45" t="n">
-        <v>702.1820173447941</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>720.7666859361078</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>659.3607044296875</v>
       </c>
       <c r="P45" t="n">
         <v>529.1950955713631</v>
       </c>
       <c r="Q45" t="n">
-        <v>181.5659671823094</v>
+        <v>224.8494906198417</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34702,16 +34702,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>8.863857440501675</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>13.99145537648747</v>
       </c>
       <c r="N2" t="n">
-        <v>13.42614404814455</v>
+        <v>4.562286607642875</v>
       </c>
       <c r="O2" t="n">
-        <v>13.99145537648747</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>13.99145537648747</v>
@@ -34781,13 +34781,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>13.78158050875686</v>
+        <v>13.42614404814455</v>
       </c>
       <c r="M3" t="n">
         <v>13.99145537648747</v>
       </c>
       <c r="N3" t="n">
-        <v>13.63601891587516</v>
+        <v>13.99145537648747</v>
       </c>
       <c r="O3" t="n">
         <v>13.99145537648747</v>
@@ -34860,7 +34860,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>13.99145537648747</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>13.99145537648747</v>
@@ -34869,7 +34869,7 @@
         <v>13.42614404814455</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>13.99145537648747</v>
       </c>
       <c r="P4" t="n">
         <v>13.99145537648747</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -34942,13 +34942,13 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>13.78158050875686</v>
+      </c>
+      <c r="O5" t="n">
         <v>14.36185758280979</v>
-      </c>
-      <c r="N5" t="n">
-        <v>14.36185758280979</v>
-      </c>
-      <c r="O5" t="n">
-        <v>13.78158050875687</v>
       </c>
       <c r="P5" t="n">
         <v>14.36185758280979</v>
@@ -35097,10 +35097,10 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>13.78158050875686</v>
       </c>
       <c r="M7" t="n">
-        <v>13.78158050875686</v>
+        <v>14.36185758280979</v>
       </c>
       <c r="N7" t="n">
         <v>14.36185758280979</v>
@@ -35109,7 +35109,7 @@
         <v>14.36185758280979</v>
       </c>
       <c r="P7" t="n">
-        <v>14.36185758280979</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>49.2715700239904</v>
       </c>
       <c r="K8" t="n">
-        <v>40.62243759887701</v>
+        <v>40.62243759887707</v>
       </c>
       <c r="L8" t="n">
-        <v>87.67023285026613</v>
+        <v>87.67023285026619</v>
       </c>
       <c r="M8" t="n">
         <v>129.5393570429493</v>
@@ -35185,10 +35185,10 @@
         <v>136.2958517730041</v>
       </c>
       <c r="O8" t="n">
-        <v>115.2303470779075</v>
+        <v>115.2303470779076</v>
       </c>
       <c r="P8" t="n">
-        <v>112.7685094895578</v>
+        <v>63.49693946556732</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>39.23762151646883</v>
+        <v>39.23762151646889</v>
       </c>
       <c r="L9" t="n">
-        <v>99.55026996340834</v>
+        <v>99.5502699634084</v>
       </c>
       <c r="M9" t="n">
-        <v>135.7228616576085</v>
+        <v>135.7228616576086</v>
       </c>
       <c r="N9" t="n">
-        <v>153.8692287332894</v>
+        <v>153.8692287332895</v>
       </c>
       <c r="O9" t="n">
         <v>118.3160459226669</v>
       </c>
       <c r="P9" t="n">
-        <v>75.43070803911959</v>
+        <v>75.43070803911962</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>84.5438974208499</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>157.1187419577133</v>
+        <v>157.1187419577134</v>
       </c>
       <c r="M10" t="n">
-        <v>104.4573396763715</v>
+        <v>157.1187419577134</v>
       </c>
       <c r="N10" t="n">
-        <v>13.00223184073349</v>
+        <v>153.3561916080876</v>
       </c>
       <c r="O10" t="n">
-        <v>154.5330603090476</v>
+        <v>154.5330603090477</v>
       </c>
       <c r="P10" t="n">
-        <v>108.4714646278459</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35580,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>230.6647515514338</v>
+        <v>230.664751551434</v>
       </c>
       <c r="K14" t="n">
-        <v>396.9576974384689</v>
+        <v>396.9576974384691</v>
       </c>
       <c r="L14" t="n">
-        <v>529.7356320003414</v>
+        <v>529.7356320003419</v>
       </c>
       <c r="M14" t="n">
-        <v>621.4222904809079</v>
+        <v>621.4222904809083</v>
       </c>
       <c r="N14" t="n">
-        <v>636.1379653217632</v>
+        <v>636.1379653217637</v>
       </c>
       <c r="O14" t="n">
-        <v>587.2170810483921</v>
+        <v>587.2170810483924</v>
       </c>
       <c r="P14" t="n">
-        <v>466.3266971103546</v>
+        <v>466.3266971103548</v>
       </c>
       <c r="Q14" t="n">
-        <v>301.5325888814212</v>
+        <v>301.5325888814215</v>
       </c>
       <c r="R14" t="n">
-        <v>89.12727975157236</v>
+        <v>89.12727975157253</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>118.3744195931052</v>
       </c>
       <c r="K15" t="n">
-        <v>281.2650048836801</v>
+        <v>281.2650048836802</v>
       </c>
       <c r="L15" t="n">
-        <v>19.54564940478715</v>
+        <v>424.9859549348564</v>
       </c>
       <c r="M15" t="n">
-        <v>515.4909562096848</v>
+        <v>110.0506506796145</v>
       </c>
       <c r="N15" t="n">
-        <v>543.6886547129254</v>
+        <v>543.6886547129258</v>
       </c>
       <c r="O15" t="n">
-        <v>474.9246632875012</v>
+        <v>474.9246632875014</v>
       </c>
       <c r="P15" t="n">
-        <v>361.6405626454602</v>
+        <v>361.6405626454604</v>
       </c>
       <c r="Q15" t="n">
-        <v>191.3237082195539</v>
+        <v>191.323708219554</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>60.47897744850258</v>
+        <v>60.47897744850263</v>
       </c>
       <c r="K16" t="n">
-        <v>230.5338582683618</v>
+        <v>230.5338582683619</v>
       </c>
       <c r="L16" t="n">
-        <v>351.0912762338121</v>
+        <v>351.0912762338122</v>
       </c>
       <c r="M16" t="n">
-        <v>380.6705878910316</v>
+        <v>380.6705878910317</v>
       </c>
       <c r="N16" t="n">
-        <v>377.108603688808</v>
+        <v>377.1086036888081</v>
       </c>
       <c r="O16" t="n">
-        <v>332.1427560255669</v>
+        <v>332.1427560255671</v>
       </c>
       <c r="P16" t="n">
-        <v>260.4472423363982</v>
+        <v>260.4472423363983</v>
       </c>
       <c r="Q16" t="n">
-        <v>96.04231181231877</v>
+        <v>96.04231181231886</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>258.5599854340734</v>
+        <v>258.5599854340733</v>
       </c>
       <c r="K17" t="n">
-        <v>438.7654219351338</v>
+        <v>438.7654219351337</v>
       </c>
       <c r="L17" t="n">
-        <v>581.6018111303392</v>
+        <v>581.601811130339</v>
       </c>
       <c r="M17" t="n">
-        <v>679.1334083058542</v>
+        <v>679.133408305854</v>
       </c>
       <c r="N17" t="n">
-        <v>694.7829093682333</v>
+        <v>694.782909368233</v>
       </c>
       <c r="O17" t="n">
-        <v>642.5938387366477</v>
+        <v>642.5938387366475</v>
       </c>
       <c r="P17" t="n">
         <v>513.5894786107115</v>
       </c>
       <c r="Q17" t="n">
-        <v>337.0249694813581</v>
+        <v>337.024969481358</v>
       </c>
       <c r="R17" t="n">
         <v>109.7729326817228</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>134.9886297921219</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>309.6613363862658</v>
+        <v>309.6613363862656</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>463.168326965046</v>
       </c>
       <c r="M18" t="n">
-        <v>560.0479834227758</v>
+        <v>6.085213491366694</v>
       </c>
       <c r="N18" t="n">
-        <v>589.4249738527747</v>
+        <v>589.4249738527745</v>
       </c>
       <c r="O18" t="n">
-        <v>516.7644599852432</v>
+        <v>516.7644599852431</v>
       </c>
       <c r="P18" t="n">
-        <v>169.4376153985476</v>
+        <v>395.2206881570329</v>
       </c>
       <c r="Q18" t="n">
-        <v>213.7711328345756</v>
+        <v>213.7711328345755</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>98.91813831794262</v>
+        <v>98.91813831794255</v>
       </c>
       <c r="K19" t="n">
-        <v>275.6783524855863</v>
+        <v>275.6783524855862</v>
       </c>
       <c r="L19" t="n">
-        <v>401.0258686691022</v>
+        <v>401.025868669102</v>
       </c>
       <c r="M19" t="n">
-        <v>431.7966736995338</v>
+        <v>431.7966736995336</v>
       </c>
       <c r="N19" t="n">
         <v>427.6851818673697</v>
       </c>
       <c r="O19" t="n">
-        <v>380.9970968761449</v>
+        <v>380.9970968761448</v>
       </c>
       <c r="P19" t="n">
-        <v>306.2940341099367</v>
+        <v>306.2940341099366</v>
       </c>
       <c r="Q19" t="n">
-        <v>136.403409124038</v>
+        <v>136.4034091240379</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>258.5599854340734</v>
+        <v>258.5599854340733</v>
       </c>
       <c r="K20" t="n">
-        <v>438.7654219351338</v>
+        <v>438.7654219351337</v>
       </c>
       <c r="L20" t="n">
-        <v>581.6018111303392</v>
+        <v>581.601811130339</v>
       </c>
       <c r="M20" t="n">
-        <v>679.1334083058542</v>
+        <v>679.133408305854</v>
       </c>
       <c r="N20" t="n">
-        <v>694.7829093682333</v>
+        <v>694.782909368233</v>
       </c>
       <c r="O20" t="n">
-        <v>642.5938387366477</v>
+        <v>642.5938387366475</v>
       </c>
       <c r="P20" t="n">
         <v>513.5894786107115</v>
       </c>
       <c r="Q20" t="n">
-        <v>337.0249694813581</v>
+        <v>337.024969481358</v>
       </c>
       <c r="R20" t="n">
         <v>109.7729326817228</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>55.02905106019872</v>
+        <v>134.9886297921218</v>
       </c>
       <c r="K21" t="n">
-        <v>309.6613363862658</v>
+        <v>309.6613363862656</v>
       </c>
       <c r="L21" t="n">
-        <v>463.1683269650461</v>
+        <v>463.168326965046</v>
       </c>
       <c r="M21" t="n">
         <v>560.0479834227758</v>
       </c>
       <c r="N21" t="n">
-        <v>589.4249738527747</v>
+        <v>509.4653951208522</v>
       </c>
       <c r="O21" t="n">
-        <v>516.7644599852432</v>
+        <v>516.7644599852431</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>98.91813831794262</v>
+        <v>98.91813831794255</v>
       </c>
       <c r="K22" t="n">
-        <v>275.6783524855863</v>
+        <v>275.6783524855862</v>
       </c>
       <c r="L22" t="n">
-        <v>401.0258686691022</v>
+        <v>401.025868669102</v>
       </c>
       <c r="M22" t="n">
-        <v>431.7966736995338</v>
+        <v>431.7966736995336</v>
       </c>
       <c r="N22" t="n">
         <v>427.6851818673697</v>
       </c>
       <c r="O22" t="n">
-        <v>380.9970968761449</v>
+        <v>380.9970968761448</v>
       </c>
       <c r="P22" t="n">
-        <v>306.2940341099367</v>
+        <v>306.2940341099366</v>
       </c>
       <c r="Q22" t="n">
-        <v>136.403409124038</v>
+        <v>136.4034091240379</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>258.5599854340744</v>
+        <v>258.5599854340733</v>
       </c>
       <c r="K23" t="n">
         <v>438.7654219351337</v>
@@ -36379,7 +36379,7 @@
         <v>337.024969481358</v>
       </c>
       <c r="R23" t="n">
-        <v>109.7729326817228</v>
+        <v>109.7729326817246</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,22 +36440,22 @@
         <v>309.6613363862656</v>
       </c>
       <c r="L24" t="n">
-        <v>463.168326965046</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>560.0479834227758</v>
+        <v>334.2649106642908</v>
       </c>
       <c r="N24" t="n">
         <v>589.4249738527745</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>516.7644599852431</v>
       </c>
       <c r="P24" t="n">
         <v>395.2206881570329</v>
       </c>
       <c r="Q24" t="n">
-        <v>41.5841930962879</v>
+        <v>213.7711328345755</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,16 +36513,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>98.91813831794259</v>
+        <v>98.91813831794255</v>
       </c>
       <c r="K25" t="n">
         <v>275.6783524855862</v>
       </c>
       <c r="L25" t="n">
-        <v>401.0258686691021</v>
+        <v>401.025868669102</v>
       </c>
       <c r="M25" t="n">
-        <v>431.7966736995337</v>
+        <v>431.7966736995336</v>
       </c>
       <c r="N25" t="n">
         <v>427.6851818673697</v>
@@ -36531,10 +36531,10 @@
         <v>380.9970968761448</v>
       </c>
       <c r="P25" t="n">
-        <v>306.2940341099367</v>
+        <v>306.2940341099366</v>
       </c>
       <c r="Q25" t="n">
-        <v>136.403409124038</v>
+        <v>136.4034091240379</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36610,7 +36610,7 @@
         <v>642.5938387366475</v>
       </c>
       <c r="P26" t="n">
-        <v>513.5894786107115</v>
+        <v>513.5894786107132</v>
       </c>
       <c r="Q26" t="n">
         <v>337.024969481358</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>134.9886297921218</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>309.6613363862656</v>
       </c>
       <c r="L27" t="n">
         <v>463.168326965046</v>
@@ -36686,13 +36686,13 @@
         <v>589.4249738527745</v>
       </c>
       <c r="O27" t="n">
-        <v>516.7644599852431</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>364.6903874464649</v>
+        <v>395.2206881570329</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>41.5841930962879</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>258.5599854340753</v>
+        <v>258.5599854340733</v>
       </c>
       <c r="K29" t="n">
         <v>438.7654219351337</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>134.9886297921218</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>309.6613363862656</v>
       </c>
       <c r="L30" t="n">
-        <v>463.168326965046</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>560.0479834227758</v>
       </c>
       <c r="N30" t="n">
-        <v>509.4653951208522</v>
+        <v>498.6305308864113</v>
       </c>
       <c r="O30" t="n">
         <v>516.7644599852431</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>395.2206881570329</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>213.7711328345755</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>134.9886297921218</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>309.6613363862656</v>
       </c>
       <c r="L33" t="n">
-        <v>432.6380262544779</v>
+        <v>463.168326965046</v>
       </c>
       <c r="M33" t="n">
         <v>560.0479834227758</v>
@@ -37160,10 +37160,10 @@
         <v>589.4249738527745</v>
       </c>
       <c r="O33" t="n">
-        <v>516.7644599852431</v>
+        <v>436.8048812533206</v>
       </c>
       <c r="P33" t="n">
-        <v>395.2206881570329</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>134.9886297921218</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>309.6613363862656</v>
       </c>
       <c r="L36" t="n">
-        <v>192.4832393860665</v>
+        <v>463.168326965046</v>
       </c>
       <c r="M36" t="n">
         <v>560.0479834227758</v>
@@ -37397,16 +37397,16 @@
         <v>589.4249738527745</v>
       </c>
       <c r="O36" t="n">
-        <v>516.7644599852431</v>
+        <v>436.8048812533206</v>
       </c>
       <c r="P36" t="n">
-        <v>395.2206881570329</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>213.7711328345755</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>26.38365403383611</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37631,19 +37631,19 @@
         <v>560.0479834227758</v>
       </c>
       <c r="N39" t="n">
-        <v>269.3106082524408</v>
+        <v>589.4249738527745</v>
       </c>
       <c r="O39" t="n">
-        <v>516.7644599852431</v>
+        <v>436.8048812533206</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>213.7711328345755</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>26.38365403383611</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>134.9886297921218</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>309.6613363862656</v>
       </c>
       <c r="L42" t="n">
-        <v>463.168326965046</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>560.0479834227758</v>
+        <v>469.2535404564126</v>
       </c>
       <c r="N42" t="n">
         <v>589.4249738527745</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>516.7644599852431</v>
       </c>
       <c r="P42" t="n">
         <v>395.2206881570329</v>
       </c>
       <c r="Q42" t="n">
-        <v>41.5841930962879</v>
+        <v>213.7711328345755</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38102,19 +38102,19 @@
         <v>463.168326965046</v>
       </c>
       <c r="M45" t="n">
-        <v>560.0479834227758</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>589.4249738527745</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>516.7644599852431</v>
       </c>
       <c r="P45" t="n">
         <v>395.2206881570329</v>
       </c>
       <c r="Q45" t="n">
-        <v>41.5841930962879</v>
+        <v>84.86771653382023</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>98.91813831794255</v>
+        <v>98.91813831794268</v>
       </c>
       <c r="K46" t="n">
-        <v>275.6783524855862</v>
+        <v>275.6783524855863</v>
       </c>
       <c r="L46" t="n">
-        <v>401.025868669102</v>
+        <v>401.0258686691021</v>
       </c>
       <c r="M46" t="n">
-        <v>431.7966736995336</v>
+        <v>431.7966736995338</v>
       </c>
       <c r="N46" t="n">
-        <v>427.6851818673697</v>
+        <v>427.6851818673698</v>
       </c>
       <c r="O46" t="n">
-        <v>380.9970968761448</v>
+        <v>380.9970968761449</v>
       </c>
       <c r="P46" t="n">
-        <v>306.2940341099366</v>
+        <v>306.2940341099367</v>
       </c>
       <c r="Q46" t="n">
-        <v>136.4034091240379</v>
+        <v>136.4034091240381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
